--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>Mettre les pourcentages sur le Pareto produit par fournisseur</t>
+  </si>
+  <si>
+    <t>Mettre en forme l'intégration du code, en réduisant l'interligne et en présentant sur 2 colonnes</t>
+  </si>
+  <si>
+    <t>Faire une fonction describe qui ne prenne pas en compte les champs percentile, mais surtout liste les non zéros pour les données numériques, sorte un pourcentage de complétude, et affiche le compte total par groupe</t>
+  </si>
+  <si>
+    <t>Retard</t>
   </si>
 </sst>
 </file>
@@ -373,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,6 +426,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,25 +533,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>75</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.285714285714278</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.571428571428569</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.857142857142854</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.142857142857139</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.428571428571427</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.714285714285714</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -618,13 +627,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -654,11 +663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490528856"/>
-        <c:axId val="490529640"/>
+        <c:axId val="389835368"/>
+        <c:axId val="389840464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490528856"/>
+        <c:axId val="389835368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +724,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490529640"/>
+        <c:crossAx val="389840464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490529640"/>
+        <c:axId val="389840464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490528856"/>
+        <c:crossAx val="389835368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,8 +1692,8 @@
   <dimension ref="B1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,2192 +1708,2220 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="4">
+        <f>SUM(E5:E396)</f>
+        <v>276</v>
+      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="str">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="str">
         <f>IF(ISBLANK(H4),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(ISBLANK(H5),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H5" s="16">
+        <v>43953</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f>IF(ISBLANK(H6),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H6" s="16">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f t="shared" ref="G6:G68" si="0">IF(ISBLANK(H6),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="G7" s="15" t="str">
+        <f t="shared" ref="G7:G68" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="G8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="G9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="15">
         <v>2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="15">
         <v>1</v>
       </c>
-      <c r="G12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="15">
         <v>5</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="G14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="15">
         <v>8</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="15">
         <v>8</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="15">
         <v>5</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="15">
         <v>5</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="15">
         <v>1</v>
       </c>
-      <c r="G19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="G21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="12">
         <v>3</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="12">
         <v>8</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="12">
         <v>5</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="12">
         <v>3</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="12">
         <v>2</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="12">
         <v>3</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="12">
         <v>3</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="12">
         <v>3</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="12">
         <v>3</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="12">
         <v>5</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="12">
         <v>5</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="12">
         <v>5</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="12">
         <v>5</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="12">
         <v>5</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="12">
         <v>2</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="12">
         <v>8</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="12">
         <v>5</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="12">
         <v>8</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="12">
         <v>8</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="12">
         <v>8</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="12">
         <v>13</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="12">
         <v>8</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="12">
         <v>5</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="12">
         <v>8</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="12">
         <v>8</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="12">
         <v>20</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="12">
         <v>8</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="12">
         <v>8</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="12">
         <v>13</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="13">
-        <v>2</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>1</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H52" s="13"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="13" t="s">
+      <c r="B53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H53" s="13"/>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H55" s="13"/>
+      <c r="B54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="12">
+        <v>3</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="12">
+        <v>3</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13" t="str">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12" t="str">
         <f t="shared" ref="G69:G132" si="1">IF(ISBLANK(H69),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H70" s="13"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H71" s="13"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H72" s="13"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H73" s="13"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H74" s="13"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H75" s="13"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H77" s="13"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H78" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H79" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H80" s="13"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H81" s="13"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H82" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H83" s="13"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H84" s="13"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H86" s="13"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H88" s="13"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H89" s="13"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H90" s="13"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H91" s="13"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H92" s="13"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H93" s="13"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H94" s="13"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H95" s="13"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H96" s="13"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H97" s="13"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H98" s="13"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H99" s="13"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H100" s="13"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H101" s="13"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H102" s="13"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H103" s="13"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H104" s="13"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H105" s="13"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H106" s="13"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H107" s="13"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H108" s="13"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H109" s="13"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H110" s="13"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H111" s="13"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H112" s="13"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H113" s="13"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H114" s="13"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H115" s="13"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H116" s="13"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H117" s="13"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H118" s="13"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H119" s="13"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H120" s="13"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H121" s="13"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H122" s="13"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H123" s="13"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H124" s="13"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H125" s="13"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H126" s="13"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H127" s="13"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H128" s="13"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H129" s="13"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H130" s="13"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H131" s="13"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H132" s="13"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13" t="str">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12" t="str">
         <f t="shared" ref="G133:G147" si="2">IF(ISBLANK(H133),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
-      <c r="H133" s="13"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13" t="str">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H134" s="13"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13" t="str">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H135" s="13"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13" t="str">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H136" s="13"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13" t="str">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H137" s="13"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13" t="str">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13" t="str">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H139" s="13"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13" t="str">
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H140" s="13"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13" t="str">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H141" s="13"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13" t="str">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H142" s="13"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13" t="str">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H143" s="13"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13" t="str">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H144" s="13"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13" t="str">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H145" s="13"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13" t="str">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H146" s="13"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13" t="str">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H147" s="13"/>
+      <c r="H147" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3897,10 +3934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,14 +3953,14 @@
         <v>75</v>
       </c>
       <c r="B2" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43952</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3935,28 +3972,28 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>43951</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>43952</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>43953</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>43954</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>43955</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>43956</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>43957</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>43958</v>
       </c>
     </row>
@@ -3969,11 +4006,11 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">IF($F$2&gt;=C$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!C$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f ca="1">IF($F$2&gt;=D$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!D$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="e">
         <f ca="1">IF($F$2&gt;=E$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!E$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
@@ -4001,15 +4038,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="3">
+        <f>$B$2</f>
+        <v>77</v>
+      </c>
+      <c r="C7" s="3">
+        <f ca="1">IF($F$2&gt;=C$5,$B$2-C6,NA())</f>
         <v>75</v>
       </c>
-      <c r="C7" s="3">
-        <f ca="1">IF($F$2&gt;=C$5,B2-C6,NA())</f>
-        <v>75</v>
-      </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" ref="D7:I7" ca="1" si="0">IF($F$2&gt;=D$5,D2-D6,NA())</f>
-        <v>#N/A</v>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:I7" ca="1" si="0">IF($F$2&gt;=D$5,$B$2-D6,NA())</f>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4037,35 +4075,73 @@
         <v>74</v>
       </c>
       <c r="B8" s="3">
-        <v>75</v>
-      </c>
-      <c r="C8" s="20">
+        <f>$B$2</f>
+        <v>77</v>
+      </c>
+      <c r="C8" s="19">
         <f>(7-COUNTA($C$5:C$5))/7*$B$2</f>
-        <v>64.285714285714278</v>
-      </c>
-      <c r="D8" s="20">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19">
         <f>(7-COUNTA($C$5:D$5))/7*$B$2</f>
-        <v>53.571428571428569</v>
-      </c>
-      <c r="E8" s="20">
+        <v>55</v>
+      </c>
+      <c r="E8" s="19">
         <f>(7-COUNTA($C$5:E$5))/7*$B$2</f>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="F8" s="20">
+        <v>44</v>
+      </c>
+      <c r="F8" s="19">
         <f>(7-COUNTA($C$5:F$5))/7*$B$2</f>
-        <v>32.142857142857139</v>
-      </c>
-      <c r="G8" s="20">
+        <v>33</v>
+      </c>
+      <c r="G8" s="19">
         <f>(7-COUNTA($C$5:G$5))/7*$B$2</f>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="H8" s="20">
+        <v>22</v>
+      </c>
+      <c r="H8" s="19">
         <f>(7-COUNTA($C$5:H$5))/7*$B$2</f>
-        <v>10.714285714285714</v>
-      </c>
-      <c r="I8" s="20">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19">
         <f>(7-COUNTA($C$5:I$5))/7*$B$2</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:I9" ca="1" si="1">C8-C7</f>
+        <v>-9</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="3" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="3" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="3" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="3" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Retard</t>
+  </si>
+  <si>
+    <t>Données / PIM / GT</t>
+  </si>
+  <si>
+    <t>Insérer en annexe la ground truth. Attention, il y a des soucis d'encodage, c'est assez pénible. (cf. notebook ground_truth)</t>
+  </si>
+  <si>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -663,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389835368"/>
-        <c:axId val="389840464"/>
+        <c:axId val="124708720"/>
+        <c:axId val="124709112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389835368"/>
+        <c:axId val="124708720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,12 +733,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389840464"/>
+        <c:crossAx val="124709112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389840464"/>
+        <c:axId val="124709112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +795,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389835368"/>
+        <c:crossAx val="124708720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1691,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1724,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="4">
         <f>SUM(E5:E396)</f>
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1827,9 +1836,11 @@
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" ref="G7:G68" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H7" s="16">
+        <v>43954</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
@@ -1849,9 +1860,11 @@
       </c>
       <c r="G8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H8" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H8" s="16">
+        <v>43954</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -1871,9 +1884,11 @@
       </c>
       <c r="G9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H9" s="16"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H9" s="16">
+        <v>43954</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
@@ -1891,11 +1906,12 @@
       <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="16">
+        <v>43954</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
@@ -2820,10 +2836,18 @@
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="12">
+        <v>3</v>
+      </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3936,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,7 +3984,7 @@
       </c>
       <c r="F2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43953</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4012,9 +4036,9 @@
         <f ca="1">IF($F$2&gt;=D$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!D$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="e">
+      <c r="E6" s="3">
         <f ca="1">IF($F$2&gt;=E$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!E$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="e">
         <f ca="1">IF($F$2&gt;=F$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!F$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
@@ -4049,9 +4073,9 @@
         <f t="shared" ref="D7:I7" ca="1" si="0">IF($F$2&gt;=D$5,$B$2-D6,NA())</f>
         <v>67</v>
       </c>
-      <c r="E7" s="3" t="e">
+      <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4123,9 +4147,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>-12</v>
       </c>
-      <c r="E9" s="3" t="e">
+      <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-12</v>
       </c>
       <c r="F9" s="3" t="e">
         <f t="shared" ca="1" si="1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Description</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Terminé</t>
+  </si>
+  <si>
+    <t>Faire l'analyse par type de produit</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -672,11 +675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124708720"/>
-        <c:axId val="124709112"/>
+        <c:axId val="385363992"/>
+        <c:axId val="385363208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124708720"/>
+        <c:axId val="385363992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +736,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124709112"/>
+        <c:crossAx val="385363208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124709112"/>
+        <c:axId val="385363208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +798,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124708720"/>
+        <c:crossAx val="385363992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1700,9 +1703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H147"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1727,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="4">
         <f>SUM(E5:E396)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1931,9 +1934,11 @@
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H11" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H11" s="16">
+        <v>43955</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
@@ -1953,9 +1958,11 @@
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H12" s="16">
+        <v>43955</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -2856,10 +2863,18 @@
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2</v>
+      </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3960,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3984,7 +3999,7 @@
       </c>
       <c r="F2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4040,9 +4055,9 @@
         <f ca="1">IF($F$2&gt;=E$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!E$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="e">
+      <c r="F6" s="3">
         <f ca="1">IF($F$2&gt;=F$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!F$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="e">
         <f ca="1">IF($F$2&gt;=G$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!G$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
@@ -4077,9 +4092,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
-      <c r="F7" s="3" t="e">
+      <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4151,9 +4166,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>-12</v>
       </c>
-      <c r="F9" s="3" t="e">
+      <c r="F9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-17</v>
       </c>
       <c r="G9" s="3" t="e">
         <f t="shared" ca="1" si="1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -173,9 +173,6 @@
     <t>Cas d'usage / chap 6</t>
   </si>
   <si>
-    <t>Rédiger le chapitre 5, y compris en ajoutant un schéma explicant la manière d'intégrer avec le PIM, et en ajoutant des exemples à ce que je présente.</t>
-  </si>
-  <si>
     <t>Modèle / chap 7</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Faire l'analyse par type de produit</t>
+  </si>
+  <si>
+    <t>Rédiger le chapitre 6, y compris en ajoutant un schéma explicant la manière d'intégrer avec le PIM, et en ajoutant des exemples à ce que je présente.</t>
   </si>
 </sst>
 </file>
@@ -651,10 +651,10 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -675,11 +675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385363992"/>
-        <c:axId val="385363208"/>
+        <c:axId val="384766464"/>
+        <c:axId val="384764896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385363992"/>
+        <c:axId val="384766464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +736,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385363208"/>
+        <c:crossAx val="384764896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385363208"/>
+        <c:axId val="384764896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +798,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385363992"/>
+        <c:crossAx val="384766464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1705,7 +1705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -1802,10 +1802,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="16">
         <v>43954</v>
@@ -1991,10 +1991,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -2004,19 +2004,21 @@
       </c>
       <c r="G14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H14" s="16">
+        <v>43955</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="15">
         <v>5</v>
@@ -2035,10 +2037,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
@@ -2057,10 +2059,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="15">
         <v>8</v>
@@ -2079,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="15">
         <v>5</v>
@@ -2126,7 +2128,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E20" s="15">
         <v>5</v>
@@ -2145,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="15">
         <v>3</v>
@@ -2507,10 +2509,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="E39" s="12">
         <v>5</v>
@@ -2527,10 +2529,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="12">
         <v>8</v>
@@ -2547,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="12">
         <v>8</v>
@@ -2567,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="12">
         <v>8</v>
@@ -2584,13 +2586,13 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" s="12">
         <v>13</v>
@@ -2604,13 +2606,13 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="E44" s="12">
         <v>8</v>
@@ -2627,10 +2629,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="12">
         <v>5</v>
@@ -2647,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="E46" s="12">
         <v>8</v>
@@ -2667,10 +2669,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="12">
         <v>8</v>
@@ -2770,7 +2772,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="12">
         <v>1</v>
@@ -2790,7 +2792,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="12">
         <v>1</v>
@@ -2810,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="12">
         <v>3</v>
@@ -2830,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="12">
         <v>3</v>
@@ -2847,10 +2849,10 @@
         <v>10</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="E56" s="12">
         <v>3</v>
@@ -2870,7 +2872,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="12">
         <v>2</v>
@@ -3975,7 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3989,22 +3991,22 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3">
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>266</v>
@@ -4038,7 +4040,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4057,11 +4059,11 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">IF($F$2&gt;=F$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!F$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="e">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3">
         <f ca="1">IF($F$2&gt;=G$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!G$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="e">
         <f ca="1">IF($F$2&gt;=H$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!H$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
@@ -4074,7 +4076,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3">
         <f>$B$2</f>
@@ -4094,11 +4096,11 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G7" s="3" t="e">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4111,7 +4113,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3">
         <f>$B$2</f>
@@ -4148,7 +4150,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <f>B8-B7</f>
@@ -4168,11 +4170,11 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="G9" s="3" t="e">
+        <v>-9</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-20</v>
       </c>
       <c r="H9" s="3" t="e">
         <f t="shared" ca="1" si="1"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -304,6 +304,39 @@
   </si>
   <si>
     <t>Rédiger le chapitre 6, y compris en ajoutant un schéma explicant la manière d'intégrer avec le PIM, et en ajoutant des exemples à ce que je présente.</t>
+  </si>
+  <si>
+    <t>SimilaritySelector</t>
+  </si>
+  <si>
+    <t>Faire une fonctionnalité qui permette d'inspecter le résultat donné par le modèle. Ex : affichage clair des similarités, impression des blocs avec mise en évidence des mots concernés, etc…</t>
+  </si>
+  <si>
+    <t>Modele / GT</t>
+  </si>
+  <si>
+    <t>Documenter la fonctionnalité d'introspection des résultats du SimilaritySelector qui a été développée.</t>
+  </si>
+  <si>
+    <t>Nouveau chapitre</t>
+  </si>
+  <si>
+    <t>Rédiger une partie sur les différentes manières d'effectuer la sélection du meilleur candidat (projection vs. cosine, binary oui / non, etc…</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Estimator</t>
+  </si>
+  <si>
+    <t>Faire un truc qui permet de généraliser le test de get_params (sans avoir à copier / coller la fonction de test)</t>
+  </si>
+  <si>
+    <t>Voir pk le label de la longtable des prédictions est en triple et corriger</t>
+  </si>
+  <si>
+    <t>Vérifier les annexes, il y en a une qui n'est pas numérotée.</t>
   </si>
 </sst>
 </file>
@@ -380,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,6 +473,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,13 +690,13 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,11 +711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384766464"/>
-        <c:axId val="384764896"/>
+        <c:axId val="393693328"/>
+        <c:axId val="393692544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384766464"/>
+        <c:axId val="393693328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +772,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384764896"/>
+        <c:crossAx val="393692544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384764896"/>
+        <c:axId val="393692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +834,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384766464"/>
+        <c:crossAx val="393693328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1704,8 +1740,8 @@
   <dimension ref="B1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1763,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="4">
         <f>SUM(E5:E396)</f>
-        <v>281</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2028,9 +2064,11 @@
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H15" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H15" s="16">
+        <v>43956</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -2165,57 +2203,65 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="12">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="str">
+        <f>IF(ISBLANK(H22),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H22" s="21">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="12">
         <v>3</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12">
-        <v>8</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
       <c r="G23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H23" s="12"/>
+        <f>IF(ISBLANK(H23),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H23" s="21">
+        <v>43958</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="str">
@@ -2224,18 +2270,18 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12">
         <v>13</v>
-      </c>
-      <c r="E25" s="12">
-        <v>3</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="str">
@@ -2249,13 +2295,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="str">
@@ -2264,15 +2310,15 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2292,10 +2338,10 @@
         <v>25</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="str">
@@ -2312,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E29" s="12">
         <v>3</v>
@@ -2332,7 +2378,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E30" s="12">
         <v>3</v>
@@ -2346,16 +2392,16 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E31" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="str">
@@ -2372,10 +2418,10 @@
         <v>25</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="str">
@@ -2385,14 +2431,14 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
-        <v>10</v>
+      <c r="B33" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="12">
         <v>5</v>
@@ -2405,17 +2451,17 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="str">
@@ -2432,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="12">
         <v>5</v>
@@ -2452,10 +2498,10 @@
         <v>25</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="str">
@@ -2472,10 +2518,10 @@
         <v>25</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="str">
@@ -2484,7 +2530,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>10</v>
       </c>
@@ -2492,10 +2538,10 @@
         <v>25</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="str">
@@ -2508,14 +2554,14 @@
       <c r="B39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>45</v>
+      <c r="C39" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E39" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="str">
@@ -2524,15 +2570,15 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>52</v>
+      <c r="C40" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E40" s="12">
         <v>8</v>
@@ -2549,13 +2595,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E41" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="str">
@@ -2569,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E42" s="12">
         <v>8</v>
@@ -2586,16 +2632,16 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="str">
@@ -2612,10 +2658,10 @@
         <v>62</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" s="12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="str">
@@ -2626,16 +2672,16 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="str">
@@ -2649,13 +2695,13 @@
         <v>10</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="str">
@@ -2669,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>66</v>
@@ -2685,17 +2731,17 @@
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="12">
         <v>8</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="12">
-        <v>20</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="str">
@@ -2704,7 +2750,7 @@
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>8</v>
       </c>
@@ -2712,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12" t="str">
@@ -2724,7 +2770,7 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="12">
         <v>8</v>
@@ -2744,7 +2790,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>8</v>
       </c>
@@ -2752,10 +2798,10 @@
         <v>22</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E51" s="12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="str">
@@ -2764,18 +2810,18 @@
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>25</v>
+    <row r="52" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E52" s="12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="str">
@@ -2792,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="12">
         <v>1</v>
@@ -2806,16 +2852,16 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="str">
@@ -2875,7 +2921,7 @@
         <v>87</v>
       </c>
       <c r="E57" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="str">
@@ -2884,11 +2930,19 @@
       </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
+    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="12">
+        <v>8</v>
+      </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2897,10 +2951,18 @@
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="12">
+        <v>5</v>
+      </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2908,11 +2970,19 @@
       </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="12">
+        <v>13</v>
+      </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2921,10 +2991,18 @@
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="12">
+        <v>5</v>
+      </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2933,10 +3011,18 @@
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="12">
+        <v>3</v>
+      </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2945,10 +3031,18 @@
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3977,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4095,7 @@
       </c>
       <c r="F2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43956</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4063,15 +4157,15 @@
       </c>
       <c r="G6" s="3">
         <f ca="1">IF($F$2&gt;=G$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!G$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="3" t="e">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
         <f ca="1">IF($F$2&gt;=H$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!H$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="3" t="e">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3">
         <f ca="1">IF($F$2&gt;=I$5,SUMPRODUCT(--(backlog!$E$4:$E$147),--(backlog!$F$4:$F$147=1),--(backlog!$H$4:$H$147&lt;=Burndown!I$5),--(backlog!$G$4:$G$147="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4100,15 +4194,15 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="e">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="3" t="e">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,15 +4268,15 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="H9" s="3" t="e">
+        <v>-15</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="3" t="e">
+        <v>-18</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-26</v>
       </c>
     </row>
   </sheetData>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
   <si>
     <t>Description</t>
   </si>
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t>Faire un outil qui permet de build tout le rapport d'un coup, y compris la conversion des notebooks en pdf</t>
+  </si>
+  <si>
+    <t>Faire une analyse sur la longueur des textes correctement prédits sur le GT based model : les listes plus courtes sont elles moins bien prédites ?</t>
+  </si>
+  <si>
+    <t>Faire un tableau plus long pour les exemples de listes d'ingrédients.</t>
+  </si>
+  <si>
+    <t>Faire un schéma des différentes classes utilisées dans les modules (diagramme de classe)</t>
   </si>
 </sst>
 </file>
@@ -616,9 +625,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,9 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +692,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,11 +933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400125456"/>
-        <c:axId val="400126240"/>
+        <c:axId val="389720664"/>
+        <c:axId val="389723016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400125456"/>
+        <c:axId val="389720664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,12 +994,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400126240"/>
+        <c:crossAx val="389723016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400126240"/>
+        <c:axId val="389723016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1056,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400125456"/>
+        <c:crossAx val="389720664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,10 +1288,10 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1312,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400786120"/>
-        <c:axId val="400784160"/>
+        <c:axId val="389719880"/>
+        <c:axId val="389720272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400786120"/>
+        <c:axId val="389719880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,12 +1382,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400784160"/>
+        <c:crossAx val="389720272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400784160"/>
+        <c:axId val="389720272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400786120"/>
+        <c:crossAx val="389719880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,12 +2935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,14 +2954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="3">
         <f>SUM(E5:E397)</f>
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2999,262 +3007,266 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="18" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(ISBLANK(H5),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>43953</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(ISBLANK(H6),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>43952</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f t="shared" ref="G7:G69" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>43955</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>43955</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>2</v>
       </c>
-      <c r="G13" s="16" t="str">
-        <f>IF(ISBLANK(H13),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="G13" s="15" t="str">
+        <f t="shared" ref="G13:G19" si="1">IF(ISBLANK(H13),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H13" s="16">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>8</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>2</v>
       </c>
-      <c r="G14" s="16" t="str">
-        <f>IF(ISBLANK(H14),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H14" s="16">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="16" t="str">
-        <f>IF(ISBLANK(H15),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H15" s="16"/>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
@@ -3273,32 +3285,32 @@
         <v>2</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f>IF(ISBLANK(H16),"A faire","Terminé")</f>
+        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="2:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>5</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>2</v>
       </c>
-      <c r="G17" s="16" t="str">
-        <f>IF(ISBLANK(H17),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H17" s="16"/>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -3317,100 +3329,100 @@
         <v>2</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f>IF(ISBLANK(H18),"A faire","Terminé")</f>
+        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>2</v>
       </c>
-      <c r="G19" s="16" t="str">
-        <f>IF(ISBLANK(H19),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="2:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>8</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="18" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>5</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>1</v>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Terminé</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>43956</v>
       </c>
     </row>
@@ -3436,51 +3448,51 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>2</v>
       </c>
-      <c r="G24" s="16" t="str">
-        <f t="shared" ref="G24" si="1">IF(ISBLANK(H24),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="G24" s="15" t="str">
+        <f t="shared" ref="G24" si="2">IF(ISBLANK(H24),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>2</v>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f>IF(ISBLANK(H29),"A faire","Terminé")</f>
+        <f t="shared" ref="G29:G38" si="3">IF(ISBLANK(H29),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H29" s="11"/>
@@ -3587,7 +3599,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="str">
-        <f>IF(ISBLANK(H30),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H30" s="11"/>
@@ -3607,7 +3619,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="str">
-        <f>IF(ISBLANK(H31),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H31" s="11"/>
@@ -3627,7 +3639,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="str">
-        <f>IF(ISBLANK(H32),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H32" s="11"/>
@@ -3647,7 +3659,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="str">
-        <f>IF(ISBLANK(H33),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H33" s="11"/>
@@ -3667,7 +3679,7 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="str">
-        <f>IF(ISBLANK(H34),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H34" s="11"/>
@@ -3687,7 +3699,7 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="str">
-        <f>IF(ISBLANK(H35),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H35" s="11"/>
@@ -3707,7 +3719,7 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="str">
-        <f>IF(ISBLANK(H36),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H36" s="11"/>
@@ -3727,7 +3739,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="str">
-        <f>IF(ISBLANK(H37),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H37" s="11"/>
@@ -3747,7 +3759,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="str">
-        <f>IF(ISBLANK(H38),"A faire","Terminé")</f>
+        <f t="shared" si="3"/>
         <v>A faire</v>
       </c>
       <c r="H38" s="11"/>
@@ -4203,7 +4215,7 @@
         <v>93</v>
       </c>
       <c r="E61" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11" t="str">
@@ -4352,11 +4364,19 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
+    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="11">
+        <v>5</v>
+      </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4365,25 +4385,41 @@
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="11">
+        <v>3</v>
+      </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="str">
-        <f t="shared" ref="G70:G133" si="2">IF(ISBLANK(H70),"A faire","Terminé")</f>
+        <f t="shared" ref="G70:G133" si="4">IF(ISBLANK(H70),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="11">
+        <v>8</v>
+      </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H71" s="11"/>
@@ -4395,7 +4431,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H72" s="11"/>
@@ -4407,7 +4443,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H73" s="11"/>
@@ -4419,7 +4455,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H74" s="11"/>
@@ -4431,7 +4467,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H75" s="11"/>
@@ -4443,7 +4479,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H76" s="11"/>
@@ -4455,7 +4491,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H77" s="11"/>
@@ -4467,7 +4503,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H78" s="11"/>
@@ -4479,7 +4515,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H79" s="11"/>
@@ -4491,7 +4527,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H80" s="11"/>
@@ -4503,7 +4539,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H81" s="11"/>
@@ -4515,7 +4551,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H82" s="11"/>
@@ -4527,7 +4563,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H83" s="11"/>
@@ -4539,7 +4575,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H84" s="11"/>
@@ -4551,7 +4587,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H85" s="11"/>
@@ -4563,7 +4599,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H86" s="11"/>
@@ -4575,7 +4611,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H87" s="11"/>
@@ -4587,7 +4623,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H88" s="11"/>
@@ -4599,7 +4635,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H89" s="11"/>
@@ -4611,7 +4647,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H90" s="11"/>
@@ -4623,7 +4659,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H91" s="11"/>
@@ -4635,7 +4671,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H92" s="11"/>
@@ -4647,7 +4683,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H93" s="11"/>
@@ -4659,7 +4695,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H94" s="11"/>
@@ -4671,7 +4707,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H95" s="11"/>
@@ -4683,7 +4719,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H96" s="11"/>
@@ -4695,7 +4731,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H97" s="11"/>
@@ -4707,7 +4743,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H98" s="11"/>
@@ -4719,7 +4755,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H99" s="11"/>
@@ -4731,7 +4767,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H100" s="11"/>
@@ -4743,7 +4779,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H101" s="11"/>
@@ -4755,7 +4791,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H102" s="11"/>
@@ -4767,7 +4803,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H103" s="11"/>
@@ -4779,7 +4815,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H104" s="11"/>
@@ -4791,7 +4827,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H105" s="11"/>
@@ -4803,7 +4839,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H106" s="11"/>
@@ -4815,7 +4851,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H107" s="11"/>
@@ -4827,7 +4863,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H108" s="11"/>
@@ -4839,7 +4875,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H109" s="11"/>
@@ -4851,7 +4887,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H110" s="11"/>
@@ -4863,7 +4899,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H111" s="11"/>
@@ -4875,7 +4911,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H112" s="11"/>
@@ -4887,7 +4923,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H113" s="11"/>
@@ -4899,7 +4935,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H114" s="11"/>
@@ -4911,7 +4947,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H115" s="11"/>
@@ -4923,7 +4959,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H116" s="11"/>
@@ -4935,7 +4971,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H117" s="11"/>
@@ -4947,7 +4983,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H118" s="11"/>
@@ -4959,7 +4995,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H119" s="11"/>
@@ -4971,7 +5007,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H120" s="11"/>
@@ -4983,7 +5019,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H121" s="11"/>
@@ -4995,7 +5031,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H122" s="11"/>
@@ -5007,7 +5043,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H123" s="11"/>
@@ -5019,7 +5055,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H124" s="11"/>
@@ -5031,7 +5067,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H125" s="11"/>
@@ -5043,7 +5079,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H126" s="11"/>
@@ -5055,7 +5091,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H127" s="11"/>
@@ -5067,7 +5103,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H128" s="11"/>
@@ -5079,7 +5115,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H129" s="11"/>
@@ -5091,7 +5127,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H130" s="11"/>
@@ -5103,7 +5139,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H131" s="11"/>
@@ -5115,7 +5151,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H132" s="11"/>
@@ -5127,7 +5163,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H133" s="11"/>
@@ -5139,7 +5175,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11" t="str">
-        <f t="shared" ref="G134:G148" si="3">IF(ISBLANK(H134),"A faire","Terminé")</f>
+        <f t="shared" ref="G134:G148" si="5">IF(ISBLANK(H134),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H134" s="11"/>
@@ -5151,7 +5187,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H135" s="11"/>
@@ -5163,7 +5199,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H136" s="11"/>
@@ -5175,7 +5211,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H137" s="11"/>
@@ -5187,7 +5223,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H138" s="11"/>
@@ -5199,7 +5235,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H139" s="11"/>
@@ -5211,7 +5247,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H140" s="11"/>
@@ -5223,7 +5259,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H141" s="11"/>
@@ -5235,7 +5271,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H142" s="11"/>
@@ -5247,7 +5283,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H143" s="11"/>
@@ -5259,7 +5295,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H144" s="11"/>
@@ -5271,7 +5307,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H145" s="11"/>
@@ -5283,7 +5319,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H146" s="11"/>
@@ -5295,7 +5331,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H147" s="11"/>
@@ -5307,19 +5343,13 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H148" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H148">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="A faire"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:H148"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -5332,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,986 +5379,986 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="24"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>67</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <f ca="1">TODAY()</f>
+        <v>43960</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="30">
+        <v>324</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="30">
+        <v>2</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="32">
         <v>43959</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="32">
-        <v>324</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="32">
-        <v>2</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="34">
-        <v>43959</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="37">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="35">
         <f>J6-1</f>
         <v>43958</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="35">
         <f>D8+1</f>
         <v>43959</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <f t="shared" ref="F8:K8" si="0">E8+1</f>
         <v>43960</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>43962</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <f t="shared" si="0"/>
         <v>43963</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>0</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!E$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="32" t="e">
+        <v>8</v>
+      </c>
+      <c r="F9" s="30">
         <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!F$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="32" t="e">
+        <v>16</v>
+      </c>
+      <c r="G9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!G$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="32" t="e">
+      <c r="H9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!H$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!I$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="32" t="e">
+      <c r="J9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!J$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K9" s="32" t="e">
+      <c r="K9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!K$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <f>$D$5</f>
         <v>67</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <f ca="1">IF($H$5&gt;=E$8,$D$5-E9,NA())</f>
-        <v>67</v>
-      </c>
-      <c r="F10" s="32" t="e">
+        <v>59</v>
+      </c>
+      <c r="F10" s="30">
         <f t="shared" ref="F10:K10" ca="1" si="1">IF($H$5&gt;=F$8,$D$5-F9,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="32" t="e">
+        <v>51</v>
+      </c>
+      <c r="G10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="32" t="e">
+      <c r="H10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="32" t="e">
+      <c r="I10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="32" t="e">
+      <c r="J10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K10" s="32" t="e">
+      <c r="K10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <f>$D$5</f>
         <v>67</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <f>(7-COUNTA($E$37:E$37))/7*$D$11</f>
         <v>57.428571428571423</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="31">
         <f>(7-COUNTA($E$37:F$37))/7*$D$5</f>
         <v>47.857142857142861</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <f>(7-COUNTA($E$37:G$37))/7*$D$5</f>
         <v>38.285714285714285</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f>(7-COUNTA($E$37:H$37))/7*$D$5</f>
         <v>28.714285714285712</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <f>(7-COUNTA($E$37:I$37))/7*$D$5</f>
         <v>19.142857142857142</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="31">
         <f>(7-COUNTA($E$37:J$37))/7*$D$5</f>
         <v>9.5714285714285712</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <f>(7-COUNTA($E$37:K$37))/7*$D$5</f>
         <v>0</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <f>D11-D10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <f t="shared" ref="E12:K12" ca="1" si="2">E11-E10</f>
-        <v>-9.5714285714285765</v>
-      </c>
-      <c r="F12" s="33" t="e">
+        <v>-1.5714285714285765</v>
+      </c>
+      <c r="F12" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.1428571428571388</v>
+      </c>
+      <c r="G12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="33" t="e">
+      <c r="H12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="33" t="e">
+      <c r="I12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="33" t="e">
+      <c r="J12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="33" t="e">
+      <c r="K12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K12" s="33" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="24"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="30">
         <v>77</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="35" t="s">
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="32">
         <f ca="1">TODAY()</f>
-        <v>43959</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+        <v>43960</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="30">
         <v>266</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="37">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="35">
         <v>43951</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="35">
         <v>43952</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="35">
         <v>43953</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="35">
         <v>43954</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="35">
         <v>43955</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="35">
         <v>43956</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="35">
         <v>43957</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="35">
         <v>43958</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="35" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="30">
         <v>0</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="30">
         <v>2</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="30">
         <v>10</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <v>21</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="30">
         <v>35</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="30">
         <v>40</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="30">
         <v>48</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="30">
         <v>51</v>
       </c>
-      <c r="L38" s="24"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="30">
         <v>77</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="30">
         <v>75</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="30">
         <v>67</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="30">
         <v>56</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="30">
         <v>42</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="30">
         <v>37</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="30">
         <v>29</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="30">
         <v>26</v>
       </c>
-      <c r="L39" s="24"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="30">
         <v>77</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>66</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="31">
         <v>55</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="31">
         <v>44</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="31">
         <v>33</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>22</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="31">
         <v>11</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>0</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="30">
         <v>0</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="30">
         <v>-9</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="30">
         <v>-12</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="30">
         <v>-12</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="30">
         <v>-9</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="30">
         <v>-15</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="30">
         <v>-18</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="30">
         <v>-26</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -148,9 +148,6 @@
     <t>Analyser les autres caractéristiques et expliquer ce qu'on en déduit</t>
   </si>
   <si>
-    <t>Faire un exemple sur le cas de l'acide gras trans 1% et expliciter par rapport au statut calculé</t>
-  </si>
-  <si>
     <t>Faire l'estimation du type de pdf contenus (image vs. texte). Nécessite un léger dev</t>
   </si>
   <si>
@@ -385,6 +382,10 @@
   </si>
   <si>
     <t>Faire un schéma des différentes classes utilisées dans les modules (diagramme de classe)</t>
+  </si>
+  <si>
+    <t>Faire un exemple sur le cas de l'acide gras trans 1% et expliciter par rapport au statut calculé
+Insérer dans la partie sur les contrôles asynchrones.</t>
   </si>
 </sst>
 </file>
@@ -933,11 +934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389720664"/>
-        <c:axId val="389723016"/>
+        <c:axId val="155561912"/>
+        <c:axId val="155564656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389720664"/>
+        <c:axId val="155561912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,12 +995,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389723016"/>
+        <c:crossAx val="155564656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389723016"/>
+        <c:axId val="155564656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1057,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389720664"/>
+        <c:crossAx val="155561912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1294,10 +1295,10 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1321,11 +1322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389719880"/>
-        <c:axId val="389720272"/>
+        <c:axId val="155559560"/>
+        <c:axId val="155560736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389719880"/>
+        <c:axId val="155559560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,12 +1383,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389720272"/>
+        <c:crossAx val="155560736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389720272"/>
+        <c:axId val="155560736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1445,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389719880"/>
+        <c:crossAx val="155559560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2935,11 +2936,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:H148"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3007,7 +3009,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3031,15 +3033,15 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
@@ -3055,7 +3057,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15">
         <v>2</v>
@@ -3144,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="15">
         <v>3</v>
@@ -3174,7 +3176,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
@@ -3198,15 +3200,15 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
@@ -3222,15 +3224,15 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -3251,10 +3253,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="15">
         <v>5</v>
@@ -3264,19 +3266,21 @@
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H15" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H15" s="16">
+        <v>43962</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="11">
         <v>8</v>
@@ -3295,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="15">
         <v>5</v>
@@ -3339,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="15">
         <v>5</v>
@@ -3364,7 +3368,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="15">
         <v>3</v>
@@ -3378,15 +3382,15 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="15">
         <v>8</v>
@@ -3402,15 +3406,15 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="15">
         <v>5</v>
@@ -3431,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="11">
         <v>5</v>
@@ -3453,10 +3457,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="E24" s="15">
         <v>3</v>
@@ -3472,13 +3476,13 @@
     </row>
     <row r="25" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="15">
         <v>3</v>
@@ -3492,15 +3496,15 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="11">
         <v>8</v>
@@ -3516,7 +3520,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="11">
         <v>3</v>
@@ -3567,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
@@ -3586,13 +3590,13 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -3606,13 +3610,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="E31" s="11">
         <v>8</v>
@@ -3629,10 +3633,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="11">
         <v>5</v>
@@ -3649,10 +3653,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="11">
         <v>8</v>
@@ -3669,10 +3673,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="11">
         <v>8</v>
@@ -3944,7 +3948,7 @@
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>10</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
@@ -3972,7 +3976,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="11">
         <v>8</v>
@@ -4072,7 +4076,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
@@ -4092,7 +4096,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="11">
         <v>1</v>
@@ -4112,7 +4116,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="11">
         <v>3</v>
@@ -4129,10 +4133,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="E57" s="11">
         <v>3</v>
@@ -4152,7 +4156,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="11">
         <v>5</v>
@@ -4166,13 +4170,13 @@
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="E59" s="11">
         <v>8</v>
@@ -4189,10 +4193,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4209,10 +4213,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E61" s="11">
         <v>20</v>
@@ -4226,13 +4230,13 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="E62" s="11">
         <v>5</v>
@@ -4249,10 +4253,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="11">
         <v>3</v>
@@ -4272,7 +4276,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -4289,10 +4293,10 @@
         <v>9</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="11">
         <v>2</v>
@@ -4306,13 +4310,13 @@
     </row>
     <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="11">
         <v>3</v>
@@ -4326,13 +4330,13 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="11">
         <v>5</v>
@@ -4352,7 +4356,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="11">
         <v>2</v>
@@ -4369,10 +4373,10 @@
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="11">
         <v>5</v>
@@ -4392,7 +4396,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E70" s="11">
         <v>3</v>
@@ -4412,7 +4416,7 @@
         <v>24</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="11">
         <v>8</v>
@@ -5349,7 +5353,13 @@
       <c r="H148" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H148"/>
+  <autoFilter ref="B3:H148">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="A faire"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -5363,7 +5373,7 @@
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,7 +5405,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
       <c r="D3" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5422,7 +5432,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="30">
         <v>67</v>
@@ -5430,11 +5440,11 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -5444,7 +5454,7 @@
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="C6" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="30">
         <v>324</v>
@@ -5452,13 +5462,13 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="30">
         <v>2</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="32">
         <v>43959</v>
@@ -5519,7 +5529,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
@@ -5532,13 +5542,13 @@
         <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!F$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>16</v>
       </c>
-      <c r="G9" s="30" t="e">
+      <c r="G9" s="30">
         <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!G$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="30" t="e">
+        <v>16</v>
+      </c>
+      <c r="H9" s="30">
         <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!H$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="I9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!I$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
@@ -5557,7 +5567,7 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="30">
         <f>$D$5</f>
@@ -5571,13 +5581,13 @@
         <f t="shared" ref="F10:K10" ca="1" si="1">IF($H$5&gt;=F$8,$D$5-F9,NA())</f>
         <v>51</v>
       </c>
-      <c r="G10" s="30" t="e">
+      <c r="G10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="30" t="e">
+        <v>51</v>
+      </c>
+      <c r="H10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="I10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -5596,7 +5606,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="30">
         <f>$D$5</f>
@@ -5635,7 +5645,7 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="31">
         <f>D11-D10</f>
@@ -5649,13 +5659,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>-3.1428571428571388</v>
       </c>
-      <c r="G12" s="31" t="e">
+      <c r="G12" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="31" t="e">
+        <v>-12.714285714285715</v>
+      </c>
+      <c r="H12" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>-17.285714285714288</v>
       </c>
       <c r="I12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -5910,7 +5920,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="27"/>
       <c r="D32" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -5937,7 +5947,7 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="C34" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="30">
         <v>77</v>
@@ -5945,11 +5955,11 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="32">
         <f ca="1">TODAY()</f>
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -5959,7 +5969,7 @@
     <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="30">
         <v>266</v>
@@ -6018,7 +6028,7 @@
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="30">
         <v>0</v>
@@ -6049,7 +6059,7 @@
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="30">
         <v>77</v>
@@ -6080,7 +6090,7 @@
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="30">
         <v>77</v>
@@ -6111,7 +6121,7 @@
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="30">
         <v>0</v>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -201,9 +201,6 @@
 Construire et illustrer l'approche naïve</t>
   </si>
   <si>
-    <t>Construire les fonctions de loss avec chacune des distances</t>
-  </si>
-  <si>
     <t>Faire une cross val sur le modèle GT</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t>Faire un outil qui permet de build tout le rapport d'un coup, y compris la conversion des notebooks en pdf</t>
-  </si>
-  <si>
-    <t>Faire une analyse sur la longueur des textes correctement prédits sur le GT based model : les listes plus courtes sont elles moins bien prédites ?</t>
   </si>
   <si>
     <t>Faire un tableau plus long pour les exemples de listes d'ingrédients.</t>
@@ -386,6 +380,24 @@
   <si>
     <t>Faire un exemple sur le cas de l'acide gras trans 1% et expliciter par rapport au statut calculé
 Insérer dans la partie sur les contrôles asynchrones.</t>
+  </si>
+  <si>
+    <t>Faire la comparaison des différentes distances et le documenter dans le rapport.</t>
+  </si>
+  <si>
+    <t>Modele / Perf</t>
+  </si>
+  <si>
+    <t>Ajouter une similarité cosinus en mots dans les méthodes possible de calcul de la similarité, puis documenter dans le chapitre qui va bien.</t>
+  </si>
+  <si>
+    <t>Construire les fonctions de similarité avec chacune des distances</t>
+  </si>
+  <si>
+    <t>Faire une analyse sur la longueur des textes correctement prédits sur le GT based model : les listes plus courtes sont elles moins bien prédites.</t>
+  </si>
+  <si>
+    <t>Terminer le tableau d'illustration des similarités : plus d'exemple, résoudre le souci de "no line to end" et le fait qu'il est bcp trop large.</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1310,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2939,9 +2951,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H148"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2975,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="3">
         <f>SUM(E5:E397)</f>
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2980,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3038,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
@@ -3146,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="16">
         <v>43954</v>
@@ -3208,7 +3220,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
@@ -3280,7 +3292,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E16" s="11">
         <v>8</v>
@@ -3290,9 +3302,11 @@
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H16" s="12">
+        <v>43962</v>
+      </c>
     </row>
     <row r="17" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
@@ -3302,7 +3316,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="15">
         <v>5</v>
@@ -3457,10 +3471,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="E24" s="15">
         <v>3</v>
@@ -3476,13 +3490,13 @@
     </row>
     <row r="25" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="15">
         <v>3</v>
@@ -3504,7 +3518,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="11">
         <v>8</v>
@@ -3528,7 +3542,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="11">
         <v>3</v>
@@ -3571,10 +3585,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
@@ -3590,13 +3604,13 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
@@ -3610,13 +3624,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="E31" s="11">
         <v>8</v>
@@ -3633,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="11">
         <v>5</v>
@@ -3653,10 +3667,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="11">
         <v>8</v>
@@ -3673,10 +3687,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="11">
         <v>8</v>
@@ -3956,7 +3970,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
@@ -4076,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
@@ -4096,7 +4110,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="11">
         <v>1</v>
@@ -4116,7 +4130,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="11">
         <v>3</v>
@@ -4133,10 +4147,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E57" s="11">
         <v>3</v>
@@ -4156,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="11">
         <v>5</v>
@@ -4170,13 +4184,13 @@
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="E59" s="11">
         <v>8</v>
@@ -4193,10 +4207,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4213,10 +4227,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E61" s="11">
         <v>20</v>
@@ -4230,13 +4244,13 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="E62" s="11">
         <v>5</v>
@@ -4253,10 +4267,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="11">
         <v>3</v>
@@ -4276,7 +4290,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -4293,10 +4307,10 @@
         <v>9</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="11">
         <v>2</v>
@@ -4310,13 +4324,13 @@
     </row>
     <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" s="11">
         <v>3</v>
@@ -4330,13 +4344,13 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67" s="11">
         <v>5</v>
@@ -4356,7 +4370,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="11">
         <v>2</v>
@@ -4373,10 +4387,10 @@
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E69" s="11">
         <v>5</v>
@@ -4396,7 +4410,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="11">
         <v>3</v>
@@ -4416,7 +4430,7 @@
         <v>24</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E71" s="11">
         <v>8</v>
@@ -4429,10 +4443,18 @@
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="11">
+        <v>8</v>
+      </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
         <f t="shared" si="4"/>
@@ -4440,11 +4462,19 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
+    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="11">
+        <v>5</v>
+      </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="str">
         <f t="shared" si="4"/>
@@ -4452,11 +4482,19 @@
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
+    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2</v>
+      </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5372,7 +5410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -5405,7 +5443,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
       <c r="D3" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5432,7 +5470,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="30">
         <v>67</v>
@@ -5440,7 +5478,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
@@ -5454,7 +5492,7 @@
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="C6" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="30">
         <v>324</v>
@@ -5462,13 +5500,13 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="30">
         <v>2</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="32">
         <v>43959</v>
@@ -5529,7 +5567,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
@@ -5548,7 +5586,7 @@
       </c>
       <c r="H9" s="30">
         <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!H$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!I$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
@@ -5567,7 +5605,7 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="30">
         <f>$D$5</f>
@@ -5587,7 +5625,7 @@
       </c>
       <c r="H10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -5606,7 +5644,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="30">
         <f>$D$5</f>
@@ -5645,7 +5683,7 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="31">
         <f>D11-D10</f>
@@ -5665,7 +5703,7 @@
       </c>
       <c r="H12" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.285714285714288</v>
+        <v>-9.2857142857142883</v>
       </c>
       <c r="I12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -5920,7 +5958,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="27"/>
       <c r="D32" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -5947,7 +5985,7 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="C34" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="30">
         <v>77</v>
@@ -5955,7 +5993,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="32">
         <f ca="1">TODAY()</f>
@@ -5969,7 +6007,7 @@
     <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="30">
         <v>266</v>
@@ -6028,7 +6066,7 @@
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="30">
         <v>0</v>
@@ -6059,7 +6097,7 @@
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="30">
         <v>77</v>
@@ -6090,7 +6128,7 @@
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="30">
         <v>77</v>
@@ -6121,7 +6159,7 @@
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="30">
         <v>0</v>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Faire l'analyse par type de produit</t>
   </si>
   <si>
-    <t>Rédiger le chapitre 6, y compris en ajoutant un schéma explicant la manière d'intégrer avec le PIM, et en ajoutant des exemples à ce que je présente.</t>
-  </si>
-  <si>
     <t>SimilaritySelector</t>
   </si>
   <si>
@@ -398,6 +395,21 @@
   </si>
   <si>
     <t>Terminer le tableau d'illustration des similarités : plus d'exemple, résoudre le souci de "no line to end" et le fait qu'il est bcp trop large.</t>
+  </si>
+  <si>
+    <t>pimapi</t>
+  </si>
+  <si>
+    <t>Faire en sorte que file_report_from_result puisse marcher sans mapping (idem result to dataframe)</t>
+  </si>
+  <si>
+    <t>Revoir la numérotation des sections dans le chapitre 9. C'est déséquilibré par rapport au reste du document.</t>
+  </si>
+  <si>
+    <t>Rédiger le chapitre 6, et en ajoutant des exemples à ce que je présente.</t>
+  </si>
+  <si>
+    <t>Revoir le notebook établissement ground truth, on a un milliard de sorties qui servent à rien.</t>
   </si>
 </sst>
 </file>
@@ -946,11 +958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155561912"/>
-        <c:axId val="155564656"/>
+        <c:axId val="390790744"/>
+        <c:axId val="390792312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155561912"/>
+        <c:axId val="390790744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,12 +1019,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155564656"/>
+        <c:crossAx val="390792312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155564656"/>
+        <c:axId val="390792312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1081,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155561912"/>
+        <c:crossAx val="390790744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1313,7 +1325,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -1334,11 +1346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155559560"/>
-        <c:axId val="155560736"/>
+        <c:axId val="390788392"/>
+        <c:axId val="390786432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155559560"/>
+        <c:axId val="390788392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,12 +1407,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155560736"/>
+        <c:crossAx val="390786432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155560736"/>
+        <c:axId val="390786432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1469,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155559560"/>
+        <c:crossAx val="390788392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2948,12 +2960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2986,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="3">
         <f>SUM(E5:E397)</f>
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -3021,7 +3032,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3080,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3141,7 +3152,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
@@ -3236,7 +3247,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
@@ -3292,7 +3303,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="11">
         <v>8</v>
@@ -3308,7 +3319,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E17" s="15">
         <v>5</v>
@@ -3326,9 +3337,11 @@
       </c>
       <c r="G17" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H17" s="15"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43963</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -3348,9 +3361,11 @@
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H18" s="12">
+        <v>43963</v>
+      </c>
     </row>
     <row r="19" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -3392,11 +3407,13 @@
       </c>
       <c r="G20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H20" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
@@ -3420,7 +3437,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3513,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="15">
         <v>3</v>
@@ -3510,7 +3527,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -3534,7 +3551,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3987,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
@@ -4187,10 +4204,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="E59" s="11">
         <v>8</v>
@@ -4207,10 +4224,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4227,10 +4244,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="E61" s="11">
         <v>20</v>
@@ -4244,13 +4261,13 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E62" s="11">
         <v>5</v>
@@ -4267,10 +4284,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E63" s="11">
         <v>3</v>
@@ -4290,7 +4307,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -4307,10 +4324,10 @@
         <v>9</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="11">
         <v>2</v>
@@ -4327,10 +4344,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="11">
         <v>3</v>
@@ -4347,10 +4364,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="11">
         <v>5</v>
@@ -4370,7 +4387,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="11">
         <v>2</v>
@@ -4387,10 +4404,10 @@
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="11">
         <v>5</v>
@@ -4410,7 +4427,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E70" s="11">
         <v>3</v>
@@ -4430,7 +4447,7 @@
         <v>24</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" s="11">
         <v>8</v>
@@ -4447,10 +4464,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" s="11">
         <v>8</v>
@@ -4467,10 +4484,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="E73" s="11">
         <v>5</v>
@@ -4487,10 +4504,10 @@
         <v>9</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" s="11">
         <v>2</v>
@@ -4503,10 +4520,18 @@
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="11">
+        <v>2</v>
+      </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
         <f t="shared" si="4"/>
@@ -4515,10 +4540,18 @@
       <c r="H75" s="11"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
         <f t="shared" si="4"/>
@@ -4527,10 +4560,18 @@
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5391,13 +5432,7 @@
       <c r="H148" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H148">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="A faire"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:H148"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -5410,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5443,7 +5478,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
       <c r="D3" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5482,7 +5517,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -5500,13 +5535,13 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="30">
         <v>2</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="32">
         <v>43959</v>
@@ -5588,9 +5623,9 @@
         <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!H$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
         <v>29</v>
       </c>
-      <c r="I9" s="30" t="e">
+      <c r="I9" s="30">
         <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!I$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="J9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!J$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
@@ -5627,9 +5662,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
-      <c r="I10" s="30" t="e">
+      <c r="I10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="J10" s="30" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -5705,9 +5740,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>-9.2857142857142883</v>
       </c>
-      <c r="I12" s="31" t="e">
+      <c r="I12" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>-7.8571428571428577</v>
       </c>
       <c r="J12" s="31" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -5958,7 +5993,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="27"/>
       <c r="D32" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -5997,7 +6032,7 @@
       </c>
       <c r="H34" s="32">
         <f ca="1">TODAY()</f>
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$158</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
   <si>
     <t>Description</t>
   </si>
@@ -411,12 +411,159 @@
   <si>
     <t>Revoir le notebook établissement ground truth, on a un milliard de sorties qui servent à rien.</t>
   </si>
+  <si>
+    <t>Voir si possible d'étendre la fonctionnalité aux désignations réglementaires</t>
+  </si>
+  <si>
+    <t>Voir la possibilité de prendre en compte le fait que des mots sont hors de la liste d'ingrédients dans un document, pour ne plus le compter comme ingrédient positif. Cela résoudrait le souci de détermination des stopwords.
++ documenter cette partie</t>
+  </si>
+  <si>
+    <t>pimest</t>
+  </si>
+  <si>
+    <t>Outil / Contenu</t>
+  </si>
+  <si>
+    <t>Chapitre 12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sur les principes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Détailler le début du chapitre 7 avec les différentes manières de : 
+- modéliser les textes comme des vecteurs
+- calculer la similarité</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mise en forme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Réduire le nombre de sous-titres</t>
+    </r>
+  </si>
+  <si>
+    <t>Remarques relecture</t>
+  </si>
+  <si>
+    <t>Tout</t>
+  </si>
+  <si>
+    <t>Chapitre 7</t>
+  </si>
+  <si>
+    <t>Faire des représentations sur les longueurs des listes d'ingrédients, et d'autres caractéristiques qui seraient intéressantes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refonte de la première partie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Remettre la partie sur le choix du cas d'usage en premier.
+Y inclure l'analyse de données sur le PIM, uniquement sur les données non structurées
+Focaliser uniquement sur les données du PIM.
+Mettre en annexe la partie Business et analyse de données SAP.
+Enfin, refondre le résumé en début de document.</t>
+    </r>
+  </si>
+  <si>
+    <t>Réécrire les définitiions mathématiques des similarité Jaro et Jaro-Winkler</t>
+  </si>
+  <si>
+    <t>Faire un chapitre sur les différents modes de calcul de la similarité. Avec de jolies représentations en couleur de ce que ça donne en fonction du taux de mots ingrédients et du nombre de mots ingrédients. Compléter ce qui a été mis dans le chapitre 7 à ce sujet</t>
+  </si>
+  <si>
+    <t>Monter un cas où on vectorise avec Word2Vec</t>
+  </si>
+  <si>
+    <t>Faire une PCA sur les mots après le Word2Vec, et afficher les mots différents entre les listes d'ingrédients et le corpus total et les mots communs sur un graphe</t>
+  </si>
+  <si>
+    <t>Modele / ?</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Refondre entièrement le début de la première partie :
+Cf. mes notes dans le cahier</t>
+  </si>
+  <si>
+    <t>Analyse des textes</t>
+  </si>
+  <si>
+    <t>Construire et illustrer la métrique des mots qui sont des mots d'ingrédients ou des mots de corpus (ex : rapport des document fréquencies ?)</t>
+  </si>
+  <si>
+    <t>Faire des représentations sur les embeddings de textes, et voir s'il est possible de comparer les textes corpus vs les textes ingrédients. Embeddings : tSVD, NNM, …</t>
+  </si>
+  <si>
+    <t>Faire un outil qui calcule la différence entre les corpus complet et les ingrédients, en gros qui ne laisse que "le reste"</t>
+  </si>
+  <si>
+    <t>Faire des représentations sur les embeddings de mots,  et voir s'il est possible d'en dégager quelque chose (ex : il y a une différence entre les ingrédients et les autres trucs ?). Embeddings : tSVD, NNM, …</t>
+  </si>
+  <si>
+    <t>Modele</t>
+  </si>
+  <si>
+    <t>Faire une grid search sur la manière de splitter ! C'est le plus important pour commencer. Sur la base du modèle GT. Et documenter</t>
+  </si>
+  <si>
+    <t>Faire une analyse sur les informations de base des textes du PIM et de la GT et des pièce jointes : 
+longueur, taux de remplissage, représentation des divers mots, etc…</t>
+  </si>
+  <si>
+    <t>Faire l'analyse de la complétude sur les listes d'ingrédients</t>
+  </si>
+  <si>
+    <t>Objectifs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +594,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +620,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,11 +881,17 @@
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,7 +935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$C$40</c:f>
+              <c:f>Burndown!$C$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +958,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$D$37:$K$37</c:f>
+              <c:f>Burndown!$D$67:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -823,7 +991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$D$40:$K$40</c:f>
+              <c:f>Burndown!$D$70:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -861,7 +1029,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$C$38</c:f>
+              <c:f>Burndown!$C$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +1052,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$D$37:$K$37</c:f>
+              <c:f>Burndown!$D$67:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -917,7 +1085,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$D$39:$K$39</c:f>
+              <c:f>Burndown!$D$69:$K$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -958,11 +1126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390790744"/>
-        <c:axId val="390792312"/>
+        <c:axId val="382259872"/>
+        <c:axId val="382259088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390790744"/>
+        <c:axId val="382259872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,12 +1187,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390792312"/>
+        <c:crossAx val="382259088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390792312"/>
+        <c:axId val="382259088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1249,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390790744"/>
+        <c:crossAx val="382259872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,7 +1323,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$C$11</c:f>
+              <c:f>Burndown!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1178,7 +1346,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$D$8:$K$8</c:f>
+              <c:f>Burndown!$D$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1211,7 +1379,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$D$11:$K$11</c:f>
+              <c:f>Burndown!$D$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1249,7 +1417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$C$10</c:f>
+              <c:f>Burndown!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Burndown!$D$8:$K$8</c:f>
+              <c:f>Burndown!$D$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1305,7 +1473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Burndown!$D$10:$K$10</c:f>
+              <c:f>Burndown!$D$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1328,10 +1496,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390788392"/>
-        <c:axId val="390786432"/>
+        <c:axId val="382263008"/>
+        <c:axId val="382262616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390788392"/>
+        <c:axId val="382263008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,12 +1575,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390786432"/>
+        <c:crossAx val="382262616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390786432"/>
+        <c:axId val="382262616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1637,395 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390788392"/>
+        <c:crossAx val="382263008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reste à faire théorique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Burndown!$D$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Burndown!$D$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reste à faire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Burndown!$D$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Burndown!$D$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="326259936"/>
+        <c:axId val="326263464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="326259936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326263464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="326263464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326259936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,6 +2154,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2630,19 +3226,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>111919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2666,13 +3778,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1135857</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>154780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>492919</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>40480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2689,6 +3801,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1135857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492919</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2960,11 +4104,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H148"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,14 +4126,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="3">
-        <f>SUM(E5:E397)</f>
-        <v>381</v>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="39">
+        <f>SUM(E5:E407)</f>
+        <v>496</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3">
+        <f>SUMPRODUCT(--($F$5:$F$158=$G$1),--($E$5:$E$158))</f>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -3032,7 +4186,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3056,7 +4210,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +4234,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3097,14 +4251,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="str">
-        <f t="shared" ref="G7:G69" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
+        <f t="shared" ref="G7:G79" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
       <c r="H7" s="16">
         <v>43954</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3128,7 +4282,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3152,7 +4306,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +4329,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +4353,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +4377,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -3247,7 +4401,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
@@ -3271,7 +4425,7 @@
         <v>43960</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +4449,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
@@ -3319,7 +4473,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -3343,7 +4497,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +4521,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
@@ -3385,11 +4539,13 @@
       </c>
       <c r="G19" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>A faire</v>
-      </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
@@ -3413,7 +4569,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
@@ -3437,7 +4593,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
@@ -3461,7 +4617,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
@@ -3479,375 +4635,393 @@
       </c>
       <c r="G23" s="11" t="str">
         <f>IF(ISBLANK(H23),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+        <v>Terminé</v>
+      </c>
+      <c r="H23" s="12">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="C24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="11">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="15">
-        <v>2</v>
-      </c>
-      <c r="G24" s="15" t="str">
-        <f t="shared" ref="G24" si="2">IF(ISBLANK(H24),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="G24" s="11" t="str">
+        <f>IF(ISBLANK(H24),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="11">
+        <v>8</v>
+      </c>
+      <c r="F25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="15">
-        <v>2</v>
-      </c>
-      <c r="G25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="11" t="str">
+        <f>IF(ISBLANK(H25),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" ref="G26:G36" si="2">IF(ISBLANK(H26),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="11">
         <v>8</v>
       </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11" t="str">
-        <f>IF(ISBLANK(H26),"A faire","Terminé")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="H26" s="12">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>3</v>
       </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
       <c r="G27" s="11" t="str">
-        <f>IF(ISBLANK(H27),"A faire","Terminé")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="H27" s="12">
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="E28" s="11">
+        <v>8</v>
+      </c>
+      <c r="F28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="11">
-        <v>2</v>
-      </c>
       <c r="G28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
       </c>
       <c r="F29" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f t="shared" ref="G29:G38" si="3">IF(ISBLANK(H29),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H29" s="11"/>
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E30" s="11">
-        <v>13</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3</v>
+      </c>
       <c r="G30" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(H30),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E31" s="11">
-        <v>8</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3</v>
+      </c>
       <c r="G31" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(H31),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="E32" s="11">
-        <v>5</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
+        <v>3</v>
+      </c>
       <c r="G32" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(H32),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E33" s="11">
-        <v>8</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3</v>
+      </c>
       <c r="G33" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(H33),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f>IF(ISBLANK(H34),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="C35" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="11">
         <v>8</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>A faire</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="F35" s="11">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>A faire</v>
-      </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>25</v>
+      <c r="C36" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="E36" s="11">
         <v>3</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>A faire</v>
-      </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="15">
         <v>3</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>A faire</v>
-      </c>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="str">
+        <f t="shared" ref="G37" si="3">IF(ISBLANK(H37),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="15">
+        <v>3</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A faire</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="11">
+        <v>8</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f>IF(ISBLANK(H39),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H39" s="12">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="D40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>A faire</v>
-      </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="11">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="11">
-        <v>5</v>
-      </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
       <c r="G40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H40" s="11"/>
+        <f>IF(ISBLANK(H40),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H40" s="12">
+        <v>43958</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E41" s="11">
         <v>3</v>
@@ -3860,61 +5034,61 @@
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>25</v>
+      <c r="B42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E42" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G42:G51" si="4">IF(ISBLANK(H42),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>25</v>
+      <c r="B43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E43" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E44" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H44" s="11"/>
@@ -3923,18 +5097,18 @@
       <c r="B45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>25</v>
+      <c r="C45" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E45" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H45" s="11"/>
@@ -3943,18 +5117,18 @@
       <c r="B46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>25</v>
+      <c r="C46" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E46" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H46" s="11"/>
@@ -3963,134 +5137,134 @@
       <c r="B47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>25</v>
+      <c r="C47" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E47" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E49" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E50" s="11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11">
         <v>3</v>
-      </c>
-      <c r="E51" s="11">
-        <v>8</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A faire</v>
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E52" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E53" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="str">
@@ -4100,17 +5274,17 @@
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E54" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11" t="str">
@@ -4120,17 +5294,17 @@
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E55" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="str">
@@ -4139,18 +5313,18 @@
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E56" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11" t="str">
@@ -4163,14 +5337,14 @@
       <c r="B57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>81</v>
+      <c r="C57" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E57" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="str">
@@ -4183,14 +5357,14 @@
       <c r="B58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E58" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="str">
@@ -4199,18 +5373,18 @@
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E59" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11" t="str">
@@ -4223,11 +5397,11 @@
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>87</v>
+      <c r="C60" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4243,14 +5417,14 @@
       <c r="B61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>89</v>
+      <c r="C61" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E61" s="11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11" t="str">
@@ -4259,18 +5433,18 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E62" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="str">
@@ -4280,17 +5454,17 @@
       <c r="H62" s="11"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>87</v>
+      <c r="B63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="E63" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11" t="str">
@@ -4299,18 +5473,18 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>24</v>
+    <row r="64" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E64" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11" t="str">
@@ -4320,17 +5494,17 @@
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>101</v>
+      <c r="B65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E65" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11" t="str">
@@ -4339,18 +5513,18 @@
       </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>105</v>
+    <row r="66" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E66" s="11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11" t="str">
@@ -4359,18 +5533,18 @@
       </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E67" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11" t="str">
@@ -4381,16 +5555,16 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E68" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11" t="str">
@@ -4399,15 +5573,15 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E69" s="11">
         <v>5</v>
@@ -4419,22 +5593,22 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E70" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="str">
-        <f t="shared" ref="G70:G133" si="4">IF(ISBLANK(H70),"A faire","Terminé")</f>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H70" s="11"/>
@@ -4444,343 +5618,444 @@
         <v>10</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E71" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E72" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E73" s="11">
         <v>5</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E74" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E75" s="11">
         <v>2</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E76" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E77" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H77" s="11"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="11">
+        <v>2</v>
+      </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="11">
+        <v>5</v>
+      </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="11">
+        <v>3</v>
+      </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G80:G143" si="5">IF(ISBLANK(H80),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H80" s="11"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="11">
+        <v>8</v>
+      </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H81" s="11"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="11">
+        <v>8</v>
+      </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="11">
+        <v>5</v>
+      </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
+    <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="11">
+        <v>2</v>
+      </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="11">
+        <v>2</v>
+      </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
+    <row r="86" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="11">
+        <v>13</v>
+      </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H86" s="11"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="11">
+        <v>8</v>
+      </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
+    <row r="88" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="11">
+        <v>13</v>
+      </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="11">
+        <v>5</v>
+      </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
+      <c r="B90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="11">
+        <v>2</v>
+      </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" s="11">
+        <v>8</v>
+      </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5</v>
+      </c>
       <c r="G92" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>A faire</v>
-      </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>A faire</v>
-      </c>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -4790,7 +6065,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H95" s="11"/>
@@ -4802,7 +6077,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H96" s="11"/>
@@ -4814,7 +6089,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H97" s="11"/>
@@ -4826,43 +6101,61 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="10"/>
+    <row r="99" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(H92),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="10"/>
+    <row r="100" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(H93),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
+    <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(H94),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H101" s="11"/>
@@ -4874,7 +6167,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H102" s="11"/>
@@ -4886,7 +6179,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H103" s="11"/>
@@ -4898,7 +6191,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H104" s="11"/>
@@ -4910,7 +6203,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H105" s="11"/>
@@ -4922,7 +6215,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H106" s="11"/>
@@ -4934,7 +6227,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H107" s="11"/>
@@ -4946,7 +6239,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H108" s="11"/>
@@ -4958,7 +6251,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H109" s="11"/>
@@ -4970,7 +6263,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H110" s="11"/>
@@ -4982,7 +6275,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H111" s="11"/>
@@ -4994,7 +6287,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H112" s="11"/>
@@ -5006,7 +6299,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H113" s="11"/>
@@ -5018,7 +6311,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H114" s="11"/>
@@ -5030,7 +6323,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H115" s="11"/>
@@ -5042,7 +6335,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H116" s="11"/>
@@ -5054,7 +6347,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H117" s="11"/>
@@ -5066,7 +6359,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H118" s="11"/>
@@ -5078,7 +6371,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H119" s="11"/>
@@ -5090,7 +6383,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H120" s="11"/>
@@ -5102,7 +6395,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H121" s="11"/>
@@ -5114,7 +6407,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H122" s="11"/>
@@ -5126,7 +6419,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H123" s="11"/>
@@ -5138,7 +6431,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H124" s="11"/>
@@ -5150,7 +6443,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H125" s="11"/>
@@ -5162,7 +6455,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H126" s="11"/>
@@ -5174,7 +6467,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H127" s="11"/>
@@ -5186,7 +6479,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H128" s="11"/>
@@ -5198,7 +6491,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H129" s="11"/>
@@ -5210,7 +6503,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H130" s="11"/>
@@ -5222,7 +6515,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H131" s="11"/>
@@ -5234,7 +6527,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H132" s="11"/>
@@ -5246,7 +6539,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H133" s="11"/>
@@ -5258,7 +6551,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11" t="str">
-        <f t="shared" ref="G134:G148" si="5">IF(ISBLANK(H134),"A faire","Terminé")</f>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H134" s="11"/>
@@ -5378,7 +6671,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G144:G158" si="6">IF(ISBLANK(H144),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H144" s="11"/>
@@ -5390,7 +6683,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H145" s="11"/>
@@ -5402,7 +6695,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H146" s="11"/>
@@ -5414,7 +6707,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H147" s="11"/>
@@ -5426,13 +6719,139 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H148" s="11"/>
     </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>A faire</v>
+      </c>
+      <c r="H158" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:H148"/>
+  <autoFilter ref="B3:H158">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="A faire"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -5443,10 +6862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L58"/>
+  <dimension ref="B1:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,14 +6896,14 @@
     <row r="3" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="23"/>
@@ -5508,7 +6927,7 @@
         <v>71</v>
       </c>
       <c r="D5" s="30">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -5517,7 +6936,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43963</v>
+        <v>43966</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -5538,13 +6957,13 @@
         <v>98</v>
       </c>
       <c r="H6" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="32">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
@@ -5567,35 +6986,35 @@
       <c r="C8" s="22"/>
       <c r="D8" s="35">
         <f>J6-1</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="E8" s="35">
         <f>D8+1</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F8" s="35">
-        <f t="shared" ref="F8:K8" si="0">E8+1</f>
-        <v>43960</v>
+        <f t="shared" ref="F8" si="0">E8+1</f>
+        <v>43967</v>
       </c>
       <c r="G8" s="35">
-        <f t="shared" si="0"/>
-        <v>43961</v>
+        <f t="shared" ref="G8" si="1">F8+1</f>
+        <v>43968</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" si="0"/>
-        <v>43962</v>
+        <f t="shared" ref="H8" si="2">G8+1</f>
+        <v>43969</v>
       </c>
       <c r="I8" s="35">
-        <f t="shared" si="0"/>
-        <v>43963</v>
+        <f t="shared" ref="I8" si="3">H8+1</f>
+        <v>43970</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="0"/>
-        <v>43964</v>
+        <f t="shared" ref="J8" si="4">I8+1</f>
+        <v>43971</v>
       </c>
       <c r="K8" s="35">
-        <f t="shared" si="0"/>
-        <v>43965</v>
+        <f t="shared" ref="K8" si="5">J8+1</f>
+        <v>43972</v>
       </c>
       <c r="L8" s="23"/>
     </row>
@@ -5608,31 +7027,31 @@
         <v>0</v>
       </c>
       <c r="E9" s="30">
-        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!E$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>8</v>
-      </c>
-      <c r="F9" s="30">
-        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!F$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>16</v>
-      </c>
-      <c r="G9" s="30">
-        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!G$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>16</v>
-      </c>
-      <c r="H9" s="30">
-        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!H$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>29</v>
-      </c>
-      <c r="I9" s="30">
-        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!I$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
-        <v>40</v>
+        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!E$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!F$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!G$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!H$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!I$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!J$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!J$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$148),--(backlog!$E$4:$E$148),--(backlog!$H$4:$H$148&lt;=Burndown!K$8),--(backlog!$G$4:$G$148="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!K$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="23"/>
@@ -5644,34 +7063,34 @@
       </c>
       <c r="D10" s="30">
         <f>$D$5</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="30">
         <f ca="1">IF($H$5&gt;=E$8,$D$5-E9,NA())</f>
-        <v>59</v>
-      </c>
-      <c r="F10" s="30">
-        <f t="shared" ref="F10:K10" ca="1" si="1">IF($H$5&gt;=F$8,$D$5-F9,NA())</f>
-        <v>51</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="F10" s="30" t="e">
+        <f t="shared" ref="F10:K10" ca="1" si="6">IF($H$5&gt;=F$8,$D$5-F9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="30" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="K10" s="30" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="L10" s="23"/>
@@ -5683,34 +7102,34 @@
       </c>
       <c r="D11" s="30">
         <f>$D$5</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="31">
-        <f>(7-COUNTA($E$37:E$37))/7*$D$11</f>
-        <v>57.428571428571423</v>
+        <f>(7-COUNTA($E$8:E$8))/7*$D$11</f>
+        <v>55.714285714285708</v>
       </c>
       <c r="F11" s="31">
-        <f>(7-COUNTA($E$37:F$37))/7*$D$5</f>
-        <v>47.857142857142861</v>
+        <f>(7-COUNTA($E$8:F$8))/7*$D$11</f>
+        <v>46.428571428571431</v>
       </c>
       <c r="G11" s="31">
-        <f>(7-COUNTA($E$37:G$37))/7*$D$5</f>
-        <v>38.285714285714285</v>
+        <f>(7-COUNTA($E$8:G$8))/7*$D$11</f>
+        <v>37.142857142857139</v>
       </c>
       <c r="H11" s="31">
-        <f>(7-COUNTA($E$37:H$37))/7*$D$5</f>
-        <v>28.714285714285712</v>
+        <f>(7-COUNTA($E$8:H$8))/7*$D$11</f>
+        <v>27.857142857142854</v>
       </c>
       <c r="I11" s="31">
-        <f>(7-COUNTA($E$37:I$37))/7*$D$5</f>
-        <v>19.142857142857142</v>
+        <f>(7-COUNTA($E$8:I$8))/7*$D$11</f>
+        <v>18.571428571428569</v>
       </c>
       <c r="J11" s="31">
-        <f>(7-COUNTA($E$37:J$37))/7*$D$5</f>
-        <v>9.5714285714285712</v>
+        <f>(7-COUNTA($E$8:J$8))/7*$D$11</f>
+        <v>9.2857142857142847</v>
       </c>
       <c r="K11" s="31">
-        <f>(7-COUNTA($E$37:K$37))/7*$D$5</f>
+        <f>(7-COUNTA($E$8:K$8))/7*$D$11</f>
         <v>0</v>
       </c>
       <c r="L11" s="23"/>
@@ -5725,31 +7144,31 @@
         <v>0</v>
       </c>
       <c r="E12" s="31">
-        <f t="shared" ref="E12:K12" ca="1" si="2">E11-E10</f>
-        <v>-1.5714285714285765</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.1428571428571388</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-12.714285714285715</v>
-      </c>
-      <c r="H12" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.2857142857142883</v>
-      </c>
-      <c r="I12" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.8571428571428577</v>
+        <f t="shared" ref="E12:K12" ca="1" si="7">E11-E10</f>
+        <v>-9.2857142857142918</v>
+      </c>
+      <c r="F12" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="J12" s="31" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="K12" s="31" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="L12" s="23"/>
@@ -5975,264 +7394,258 @@
       <c r="K29" s="25"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
-      <c r="C34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="30">
-        <v>77</v>
-      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="32">
-        <f ca="1">TODAY()</f>
-        <v>43963</v>
-      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
     </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
-      <c r="C35" s="34" t="s">
-        <v>75</v>
+      <c r="C35" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="D35" s="30">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="G35" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="32">
+        <v>43966</v>
+      </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="30">
+        <v>324</v>
+      </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="G36" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="30">
+        <v>2</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="32">
+        <v>43959</v>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="35">
-        <v>43951</v>
-      </c>
-      <c r="E37" s="35">
-        <v>43952</v>
-      </c>
-      <c r="F37" s="35">
-        <v>43953</v>
-      </c>
-      <c r="G37" s="35">
-        <v>43954</v>
-      </c>
-      <c r="H37" s="35">
-        <v>43955</v>
-      </c>
-      <c r="I37" s="35">
-        <v>43956</v>
-      </c>
-      <c r="J37" s="35">
-        <v>43957</v>
-      </c>
-      <c r="K37" s="35">
-        <v>43958</v>
-      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0</v>
-      </c>
-      <c r="E38" s="30">
-        <v>2</v>
-      </c>
-      <c r="F38" s="30">
-        <v>10</v>
-      </c>
-      <c r="G38" s="30">
-        <v>21</v>
-      </c>
-      <c r="H38" s="30">
-        <v>35</v>
-      </c>
-      <c r="I38" s="30">
-        <v>40</v>
-      </c>
-      <c r="J38" s="30">
-        <v>48</v>
-      </c>
-      <c r="K38" s="30">
-        <v>51</v>
+      <c r="C38" s="22"/>
+      <c r="D38" s="35">
+        <v>43958</v>
+      </c>
+      <c r="E38" s="35">
+        <v>43959</v>
+      </c>
+      <c r="F38" s="35">
+        <v>43960</v>
+      </c>
+      <c r="G38" s="35">
+        <v>43961</v>
+      </c>
+      <c r="H38" s="35">
+        <v>43962</v>
+      </c>
+      <c r="I38" s="35">
+        <v>43963</v>
+      </c>
+      <c r="J38" s="35">
+        <v>43964</v>
+      </c>
+      <c r="K38" s="35">
+        <v>43965</v>
       </c>
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="30">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E39" s="30">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="F39" s="30">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="G39" s="30">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H39" s="30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I39" s="30">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J39" s="30">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K39" s="30">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="30">
-        <v>77</v>
-      </c>
-      <c r="E40" s="31">
-        <v>66</v>
-      </c>
-      <c r="F40" s="31">
-        <v>55</v>
-      </c>
-      <c r="G40" s="31">
-        <v>44</v>
-      </c>
-      <c r="H40" s="31">
-        <v>33</v>
-      </c>
-      <c r="I40" s="31">
-        <v>22</v>
-      </c>
-      <c r="J40" s="31">
-        <v>11</v>
-      </c>
-      <c r="K40" s="31">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="E40" s="30">
+        <v>59</v>
+      </c>
+      <c r="F40" s="30">
+        <v>51</v>
+      </c>
+      <c r="G40" s="30">
+        <v>51</v>
+      </c>
+      <c r="H40" s="30">
+        <v>38</v>
+      </c>
+      <c r="I40" s="30">
+        <v>27</v>
+      </c>
+      <c r="J40" s="30">
+        <v>17</v>
+      </c>
+      <c r="K40" s="30">
+        <v>17</v>
       </c>
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D41" s="30">
+        <v>67</v>
+      </c>
+      <c r="E41" s="31">
+        <v>57.428571428571423</v>
+      </c>
+      <c r="F41" s="31">
+        <v>47.857142857142861</v>
+      </c>
+      <c r="G41" s="31">
+        <v>38.285714285714285</v>
+      </c>
+      <c r="H41" s="31">
+        <v>28.714285714285712</v>
+      </c>
+      <c r="I41" s="31">
+        <v>19.142857142857142</v>
+      </c>
+      <c r="J41" s="31">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="K41" s="31">
         <v>0</v>
-      </c>
-      <c r="E41" s="30">
-        <v>-9</v>
-      </c>
-      <c r="F41" s="30">
-        <v>-12</v>
-      </c>
-      <c r="G41" s="30">
-        <v>-12</v>
-      </c>
-      <c r="H41" s="30">
-        <v>-9</v>
-      </c>
-      <c r="I41" s="30">
-        <v>-15</v>
-      </c>
-      <c r="J41" s="30">
-        <v>-18</v>
-      </c>
-      <c r="K41" s="30">
-        <v>-26</v>
       </c>
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="C42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0</v>
+      </c>
+      <c r="E42" s="31">
+        <v>-1.5714285714285765</v>
+      </c>
+      <c r="F42" s="31">
+        <v>-3.1428571428571388</v>
+      </c>
+      <c r="G42" s="31">
+        <v>-12.714285714285715</v>
+      </c>
+      <c r="H42" s="31">
+        <v>-9.2857142857142883</v>
+      </c>
+      <c r="I42" s="31">
+        <v>-7.8571428571428577</v>
+      </c>
+      <c r="J42" s="31">
+        <v>-7.4285714285714288</v>
+      </c>
+      <c r="K42" s="31">
+        <v>-17</v>
+      </c>
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -6430,22 +7843,504 @@
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="26"/>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="21"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="30">
+        <v>77</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="32">
+        <f ca="1">TODAY()</f>
+        <v>43966</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+      <c r="C65" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="30">
+        <v>266</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="35">
+        <v>43951</v>
+      </c>
+      <c r="E67" s="35">
+        <v>43952</v>
+      </c>
+      <c r="F67" s="35">
+        <v>43953</v>
+      </c>
+      <c r="G67" s="35">
+        <v>43954</v>
+      </c>
+      <c r="H67" s="35">
+        <v>43955</v>
+      </c>
+      <c r="I67" s="35">
+        <v>43956</v>
+      </c>
+      <c r="J67" s="35">
+        <v>43957</v>
+      </c>
+      <c r="K67" s="35">
+        <v>43958</v>
+      </c>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
+      <c r="C68" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="30">
+        <v>0</v>
+      </c>
+      <c r="E68" s="30">
+        <v>2</v>
+      </c>
+      <c r="F68" s="30">
+        <v>10</v>
+      </c>
+      <c r="G68" s="30">
+        <v>21</v>
+      </c>
+      <c r="H68" s="30">
+        <v>35</v>
+      </c>
+      <c r="I68" s="30">
+        <v>40</v>
+      </c>
+      <c r="J68" s="30">
+        <v>48</v>
+      </c>
+      <c r="K68" s="30">
+        <v>51</v>
+      </c>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+      <c r="C69" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="30">
+        <v>77</v>
+      </c>
+      <c r="E69" s="30">
+        <v>75</v>
+      </c>
+      <c r="F69" s="30">
+        <v>67</v>
+      </c>
+      <c r="G69" s="30">
+        <v>56</v>
+      </c>
+      <c r="H69" s="30">
+        <v>42</v>
+      </c>
+      <c r="I69" s="30">
+        <v>37</v>
+      </c>
+      <c r="J69" s="30">
+        <v>29</v>
+      </c>
+      <c r="K69" s="30">
+        <v>26</v>
+      </c>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="30">
+        <v>77</v>
+      </c>
+      <c r="E70" s="31">
+        <v>66</v>
+      </c>
+      <c r="F70" s="31">
+        <v>55</v>
+      </c>
+      <c r="G70" s="31">
+        <v>44</v>
+      </c>
+      <c r="H70" s="31">
+        <v>33</v>
+      </c>
+      <c r="I70" s="31">
+        <v>22</v>
+      </c>
+      <c r="J70" s="31">
+        <v>11</v>
+      </c>
+      <c r="K70" s="31">
+        <v>0</v>
+      </c>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="21"/>
+      <c r="C71" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="30">
+        <v>0</v>
+      </c>
+      <c r="E71" s="30">
+        <v>-9</v>
+      </c>
+      <c r="F71" s="30">
+        <v>-12</v>
+      </c>
+      <c r="G71" s="30">
+        <v>-12</v>
+      </c>
+      <c r="H71" s="30">
+        <v>-9</v>
+      </c>
+      <c r="I71" s="30">
+        <v>-15</v>
+      </c>
+      <c r="J71" s="30">
+        <v>-18</v>
+      </c>
+      <c r="K71" s="30">
+        <v>-26</v>
+      </c>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="23"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="23"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="23"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="23"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D32:I32"/>
+  <mergeCells count="3">
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D33:I33"/>
     <mergeCell ref="D3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t>Description</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>Objectifs</t>
+  </si>
+  <si>
+    <t>Faire le ménage sur les parties qui ne servent à rien dans business.</t>
+  </si>
+  <si>
+    <t>Retirer les notebooks qui ne servent à rien.</t>
   </si>
 </sst>
 </file>
@@ -4111,7 +4117,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +4139,7 @@
       <c r="D1" s="37"/>
       <c r="E1" s="39">
         <f>SUM(E5:E407)</f>
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G1" s="3">
         <v>3</v>
@@ -6034,18 +6040,19 @@
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="11">
         <v>5</v>
       </c>
+      <c r="F92" s="11"/>
       <c r="G92" s="11" t="str">
         <f t="shared" si="5"/>
         <v>A faire</v>
@@ -6053,9 +6060,43 @@
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="11">
+        <v>2</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="11">
+        <v>2</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
   <si>
     <t>Description</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Retirer les notebooks qui ne servent à rien.</t>
+  </si>
+  <si>
+    <t>Montrer la relation entre longueur du texte d'ingrédients cible et similarité.</t>
   </si>
 </sst>
 </file>
@@ -890,14 +893,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382259872"/>
-        <c:axId val="382259088"/>
+        <c:axId val="401489640"/>
+        <c:axId val="401490424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382259872"/>
+        <c:axId val="401489640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,12 +1196,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382259088"/>
+        <c:crossAx val="401490424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382259088"/>
+        <c:axId val="401490424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1258,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382259872"/>
+        <c:crossAx val="401489640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,11 +1523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382263008"/>
-        <c:axId val="382262616"/>
+        <c:axId val="401482976"/>
+        <c:axId val="401488072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382263008"/>
+        <c:axId val="401482976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,12 +1584,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382262616"/>
+        <c:crossAx val="401488072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382262616"/>
+        <c:axId val="401488072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1646,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382263008"/>
+        <c:crossAx val="401482976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1875,16 +1878,16 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1908,11 +1911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326259936"/>
-        <c:axId val="326263464"/>
+        <c:axId val="401488464"/>
+        <c:axId val="401484152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326259936"/>
+        <c:axId val="401488464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1972,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326263464"/>
+        <c:crossAx val="401484152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326263464"/>
+        <c:axId val="401484152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2034,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326259936"/>
+        <c:crossAx val="401488464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4111,13 +4114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H158"/>
+  <dimension ref="B1:N159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,21 +4135,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="39">
-        <f>SUM(E5:E407)</f>
-        <v>500</v>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37">
+        <f>SUM(E5:E408)</f>
+        <v>503</v>
       </c>
       <c r="G1" s="3">
         <v>3</v>
       </c>
       <c r="H1" s="3">
-        <f>SUMPRODUCT(--($F$5:$F$158=$G$1),--($E$5:$E$158))</f>
-        <v>65</v>
+        <f>SUMPRODUCT(--($F$5:$F$159=$G$1),--($E$5:$E$159))</f>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -4257,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="str">
-        <f t="shared" ref="G7:G79" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
+        <f t="shared" ref="G7:G80" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
       <c r="H7" s="16">
@@ -4479,7 +4482,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
@@ -4665,11 +4668,16 @@
       </c>
       <c r="G24" s="11" t="str">
         <f>IF(ISBLANK(H24),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H24" s="12">
+        <v>43966</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
@@ -4687,11 +4695,13 @@
       </c>
       <c r="G25" s="11" t="str">
         <f>IF(ISBLANK(H25),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H25" s="12">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -4708,34 +4718,36 @@
         <v>3</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f t="shared" ref="G26:G36" si="2">IF(ISBLANK(H26),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G26:G37" si="2">IF(ISBLANK(H26),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H26" s="12">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E27" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F27" s="11">
         <v>3</v>
       </c>
       <c r="G27" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G27" si="3">IF(ISBLANK(H27),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="11">
         <v>8</v>
@@ -4757,7 +4769,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>143</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
@@ -4775,33 +4787,37 @@
       </c>
       <c r="G29" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>A faire</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E30" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="11">
         <v>3</v>
       </c>
       <c r="G30" s="11" t="str">
-        <f>IF(ISBLANK(H30),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H30" s="12">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
@@ -4809,7 +4825,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -4823,15 +4839,15 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -4850,10 +4866,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -4872,13 +4888,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E34" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="11">
         <v>3</v>
@@ -4889,124 +4905,124 @@
       </c>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E35" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F35" s="11">
         <v>3</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>A faire</v>
-      </c>
-      <c r="H35" s="12"/>
+        <f>IF(ISBLANK(H35),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" s="11">
+        <v>8</v>
+      </c>
+      <c r="F36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="11"/>
       <c r="G36" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>A faire</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+        <v>Terminé</v>
+      </c>
+      <c r="H36" s="12">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="15">
+      <c r="C37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="str">
-        <f t="shared" ref="G37" si="3">IF(ISBLANK(H37),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H37" s="15"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A faire</v>
+      </c>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15" t="str">
+        <f t="shared" ref="G38" si="4">IF(ISBLANK(H38),"A faire","Terminé")</f>
+        <v>A faire</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="15">
+        <v>3</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="11">
-        <v>8</v>
-      </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="11" t="str">
-        <f>IF(ISBLANK(H39),"A faire","Terminé")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="H39" s="12">
-        <v>43957</v>
-      </c>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E40" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F40" s="11">
         <v>1</v>
@@ -5016,65 +5032,69 @@
         <v>Terminé</v>
       </c>
       <c r="H40" s="12">
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>22</v>
+      <c r="C41" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
       <c r="G41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H41" s="11"/>
+        <f>IF(ISBLANK(H41),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H41" s="12">
+        <v>43958</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>54</v>
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E42" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="str">
-        <f t="shared" ref="G42:G51" si="4">IF(ISBLANK(H42),"A faire","Terminé")</f>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G43:G52" si="5">IF(ISBLANK(H43),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H43" s="11"/>
@@ -5087,34 +5107,34 @@
         <v>59</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E44" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H45" s="11"/>
@@ -5124,17 +5144,17 @@
         <v>10</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H46" s="11"/>
@@ -5144,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>63</v>
@@ -5154,27 +5174,27 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>25</v>
+      <c r="C48" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E48" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H48" s="11"/>
@@ -5187,14 +5207,14 @@
         <v>25</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H49" s="11"/>
@@ -5207,59 +5227,59 @@
         <v>25</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="11">
         <v>3</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51" s="11">
         <v>3</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>10</v>
       </c>
@@ -5267,30 +5287,30 @@
         <v>23</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E54" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11" t="str">
@@ -5301,16 +5321,16 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="str">
@@ -5321,13 +5341,13 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="11">
         <v>5</v>
@@ -5340,14 +5360,14 @@
       <c r="H56" s="11"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="11">
         <v>5</v>
@@ -5367,10 +5387,10 @@
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="str">
@@ -5387,10 +5407,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11" t="str">
@@ -5407,7 +5427,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -5419,7 +5439,7 @@
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>10</v>
       </c>
@@ -5427,10 +5447,10 @@
         <v>25</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E61" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11" t="str">
@@ -5447,10 +5467,10 @@
         <v>25</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E62" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="str">
@@ -5459,18 +5479,18 @@
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="11">
         <v>8</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="11">
-        <v>20</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11" t="str">
@@ -5479,7 +5499,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>8</v>
       </c>
@@ -5487,10 +5507,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11" t="str">
@@ -5499,7 +5519,7 @@
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5527,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="11">
         <v>8</v>
@@ -5519,7 +5539,7 @@
       </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>8</v>
       </c>
@@ -5527,10 +5547,10 @@
         <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E66" s="11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11" t="str">
@@ -5539,18 +5559,18 @@
       </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>25</v>
+    <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E67" s="11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11" t="str">
@@ -5559,15 +5579,15 @@
       </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E68" s="11">
         <v>3</v>
@@ -5584,13 +5604,13 @@
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E69" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11" t="str">
@@ -5599,18 +5619,18 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E70" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="str">
@@ -5619,18 +5639,18 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E71" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="str">
@@ -5639,18 +5659,18 @@
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E72" s="11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
@@ -5659,18 +5679,18 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E73" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="str">
@@ -5681,16 +5701,16 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E74" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
@@ -5704,13 +5724,13 @@
         <v>9</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E75" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
@@ -5719,18 +5739,18 @@
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E76" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
@@ -5739,18 +5759,18 @@
       </c>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E77" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
@@ -5761,16 +5781,16 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="str">
@@ -5779,18 +5799,18 @@
       </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E79" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="str">
@@ -5799,22 +5819,22 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E80" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11" t="str">
-        <f t="shared" ref="G80:G143" si="5">IF(ISBLANK(H80),"A faire","Terminé")</f>
+        <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
       <c r="H80" s="11"/>
@@ -5824,17 +5844,17 @@
         <v>10</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G81:G144" si="6">IF(ISBLANK(H81),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H81" s="11"/>
@@ -5844,22 +5864,22 @@
         <v>10</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E82" s="11">
         <v>8</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>10</v>
       </c>
@@ -5867,134 +5887,134 @@
         <v>113</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E84" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E85" s="11">
         <v>2</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E86" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E87" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E88" s="11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E89" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H89" s="11"/>
@@ -6004,17 +6024,17 @@
         <v>10</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E90" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H90" s="11"/>
@@ -6024,22 +6044,22 @@
         <v>10</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E91" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
@@ -6047,37 +6067,41 @@
         <v>139</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E92" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E93" s="11">
-        <v>2</v>
-      </c>
-      <c r="F93" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="F93" s="11">
+        <v>3</v>
+      </c>
       <c r="G93" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H93" s="11"/>
+        <f t="shared" si="6"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H93" s="12">
+        <v>43967</v>
+      </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
@@ -6087,26 +6111,34 @@
         <v>24</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" s="11">
         <v>2</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
+      <c r="B95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="11">
+        <v>2</v>
+      </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H95" s="11"/>
@@ -6118,7 +6150,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H96" s="11"/>
@@ -6130,7 +6162,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H97" s="11"/>
@@ -6142,56 +6174,50 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>134</v>
-      </c>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="str">
-        <f>IF(ISBLANK(H92),"A faire","Terminé")</f>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
         <f>IF(ISBLANK(H93),"A faire","Terminé")</f>
-        <v>A faire</v>
+        <v>Terminé</v>
       </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -6201,14 +6227,20 @@
       </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="10"/>
+    <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(H95),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H102" s="11"/>
@@ -6220,7 +6252,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H103" s="11"/>
@@ -6232,7 +6264,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H104" s="11"/>
@@ -6244,7 +6276,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H105" s="11"/>
@@ -6256,7 +6288,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H106" s="11"/>
@@ -6268,7 +6300,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H107" s="11"/>
@@ -6280,7 +6312,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H108" s="11"/>
@@ -6292,7 +6324,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H109" s="11"/>
@@ -6304,7 +6336,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H110" s="11"/>
@@ -6316,7 +6348,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H111" s="11"/>
@@ -6328,7 +6360,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H112" s="11"/>
@@ -6340,7 +6372,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H113" s="11"/>
@@ -6352,7 +6384,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H114" s="11"/>
@@ -6364,7 +6396,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H115" s="11"/>
@@ -6376,7 +6408,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H116" s="11"/>
@@ -6388,7 +6420,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H117" s="11"/>
@@ -6400,7 +6432,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H118" s="11"/>
@@ -6412,7 +6444,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H119" s="11"/>
@@ -6424,7 +6456,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H120" s="11"/>
@@ -6436,7 +6468,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H121" s="11"/>
@@ -6448,7 +6480,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H122" s="11"/>
@@ -6460,7 +6492,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H123" s="11"/>
@@ -6472,7 +6504,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H124" s="11"/>
@@ -6484,7 +6516,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H125" s="11"/>
@@ -6496,7 +6528,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H126" s="11"/>
@@ -6508,7 +6540,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H127" s="11"/>
@@ -6520,7 +6552,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H128" s="11"/>
@@ -6532,7 +6564,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H129" s="11"/>
@@ -6544,7 +6576,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H130" s="11"/>
@@ -6556,7 +6588,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H131" s="11"/>
@@ -6568,7 +6600,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H132" s="11"/>
@@ -6580,7 +6612,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H133" s="11"/>
@@ -6592,7 +6624,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H134" s="11"/>
@@ -6604,7 +6636,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H135" s="11"/>
@@ -6616,7 +6648,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H136" s="11"/>
@@ -6628,7 +6660,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H137" s="11"/>
@@ -6640,7 +6672,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H138" s="11"/>
@@ -6652,7 +6684,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H139" s="11"/>
@@ -6664,7 +6696,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H140" s="11"/>
@@ -6676,7 +6708,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H141" s="11"/>
@@ -6688,7 +6720,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H142" s="11"/>
@@ -6700,7 +6732,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H143" s="11"/>
@@ -6712,7 +6744,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="str">
-        <f t="shared" ref="G144:G158" si="6">IF(ISBLANK(H144),"A faire","Terminé")</f>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H144" s="11"/>
@@ -6724,7 +6756,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G145:G159" si="7">IF(ISBLANK(H145),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H145" s="11"/>
@@ -6736,7 +6768,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H146" s="11"/>
@@ -6748,7 +6780,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H147" s="11"/>
@@ -6760,7 +6792,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H148" s="11"/>
@@ -6772,7 +6804,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H149" s="11"/>
@@ -6784,7 +6816,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H150" s="11"/>
@@ -6796,7 +6828,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H151" s="11"/>
@@ -6808,7 +6840,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H152" s="11"/>
@@ -6820,7 +6852,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H153" s="11"/>
@@ -6832,7 +6864,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H154" s="11"/>
@@ -6844,7 +6876,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H155" s="11"/>
@@ -6856,7 +6888,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H156" s="11"/>
@@ -6868,7 +6900,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H157" s="11"/>
@@ -6880,15 +6912,27 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A faire</v>
       </c>
       <c r="H158" s="11"/>
     </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>A faire</v>
+      </c>
+      <c r="H159" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:H158">
+  <autoFilter ref="B3:H159">
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="A faire"/>
       </filters>
     </filterColumn>
@@ -6937,14 +6981,14 @@
     <row r="3" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="23"/>
@@ -6977,7 +7021,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7068,31 +7112,31 @@
         <v>0</v>
       </c>
       <c r="E9" s="30">
-        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!E$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!F$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!E$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <v>18</v>
+      </c>
+      <c r="F9" s="30">
+        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!F$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <v>39</v>
+      </c>
+      <c r="G9" s="30">
+        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!G$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <v>47</v>
+      </c>
+      <c r="H9" s="30">
+        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!H$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <v>55</v>
+      </c>
+      <c r="I9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!I$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!G$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+      <c r="J9" s="30" t="e">
+        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!J$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!H$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!I$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!J$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
       <c r="K9" s="30" t="e">
-        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$158),--(backlog!$E$4:$E$158),--(backlog!$H$4:$H$158&lt;=Burndown!K$8),--(backlog!$G$4:$G$158="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!K$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="23"/>
@@ -7108,19 +7152,19 @@
       </c>
       <c r="E10" s="30">
         <f ca="1">IF($H$5&gt;=E$8,$D$5-E9,NA())</f>
-        <v>65</v>
-      </c>
-      <c r="F10" s="30" t="e">
+        <v>47</v>
+      </c>
+      <c r="F10" s="30">
         <f t="shared" ref="F10:K10" ca="1" si="6">IF($H$5&gt;=F$8,$D$5-F9,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="30" t="e">
+        <v>26</v>
+      </c>
+      <c r="G10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="30" t="e">
+        <v>18</v>
+      </c>
+      <c r="H10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="I10" s="30" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -7186,19 +7230,19 @@
       </c>
       <c r="E12" s="31">
         <f t="shared" ref="E12:K12" ca="1" si="7">E11-E10</f>
-        <v>-9.2857142857142918</v>
-      </c>
-      <c r="F12" s="31" t="e">
+        <v>8.7142857142857082</v>
+      </c>
+      <c r="F12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="31" t="e">
+        <v>20.428571428571431</v>
+      </c>
+      <c r="G12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="31" t="e">
+        <v>19.142857142857139</v>
+      </c>
+      <c r="H12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>17.857142857142854</v>
       </c>
       <c r="I12" s="31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7452,14 +7496,14 @@
     <row r="33" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="28"/>
       <c r="K33" s="29"/>
       <c r="L33" s="23"/>
@@ -7927,14 +7971,14 @@
     <row r="62" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="21"/>
       <c r="C62" s="27"/>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
       <c r="J62" s="28"/>
       <c r="K62" s="29"/>
       <c r="L62" s="23"/>
@@ -7967,7 +8011,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1135,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401489640"/>
-        <c:axId val="401490424"/>
+        <c:axId val="391124360"/>
+        <c:axId val="391125928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401489640"/>
+        <c:axId val="391124360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1196,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401490424"/>
+        <c:crossAx val="391125928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401490424"/>
+        <c:axId val="391125928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1258,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401489640"/>
+        <c:crossAx val="391124360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1523,11 +1523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401482976"/>
-        <c:axId val="401488072"/>
+        <c:axId val="391129456"/>
+        <c:axId val="391130240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401482976"/>
+        <c:axId val="391129456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,12 +1584,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401488072"/>
+        <c:crossAx val="391130240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401488072"/>
+        <c:axId val="391130240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1646,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401482976"/>
+        <c:crossAx val="391129456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1887,13 +1887,13 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1911,11 +1911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401488464"/>
-        <c:axId val="401484152"/>
+        <c:axId val="391124752"/>
+        <c:axId val="391128280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401488464"/>
+        <c:axId val="391124752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,12 +1972,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401484152"/>
+        <c:crossAx val="391128280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401484152"/>
+        <c:axId val="391128280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2034,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401488464"/>
+        <c:crossAx val="391124752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4114,13 +4114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:N159"/>
+  <dimension ref="B1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4482,7 +4482,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
@@ -4673,11 +4673,8 @@
       <c r="H24" s="12">
         <v>43966</v>
       </c>
-      <c r="N24" s="2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +4698,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
@@ -4743,11 +4740,13 @@
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" ref="G27" si="3">IF(ISBLANK(H27),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H27" s="12">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
@@ -4765,11 +4764,13 @@
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>A faire</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H28" s="12">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
@@ -4839,7 +4840,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
@@ -7021,7 +7022,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7125,15 +7126,15 @@
       </c>
       <c r="H9" s="30">
         <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!H$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
-        <v>55</v>
-      </c>
-      <c r="I9" s="30" t="e">
+        <v>63</v>
+      </c>
+      <c r="I9" s="30">
         <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!I$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="30" t="e">
+        <v>66</v>
+      </c>
+      <c r="J9" s="30">
         <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!J$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="K9" s="30" t="e">
         <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!K$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
@@ -7164,15 +7165,15 @@
       </c>
       <c r="H10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="I10" s="30" t="e">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="30" t="e">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="30" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -7242,15 +7243,15 @@
       </c>
       <c r="H12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>17.857142857142854</v>
-      </c>
-      <c r="I12" s="31" t="e">
+        <v>25.857142857142854</v>
+      </c>
+      <c r="I12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="31" t="e">
+        <v>19.571428571428569</v>
+      </c>
+      <c r="J12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>10.285714285714285</v>
       </c>
       <c r="K12" s="31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8011,7 +8012,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Burndown" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Burndown" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$159</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
   <si>
     <t>Description</t>
   </si>
@@ -566,6 +567,24 @@
   </si>
   <si>
     <t>Montrer la relation entre longueur du texte d'ingrédients cible et similarité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je dois : </t>
+  </si>
+  <si>
+    <t>Rédiger la partie sur le tuning des hyperparamètres</t>
+  </si>
+  <si>
+    <t>Détailler en amont les différent concepts ? Juste similarité cosinus et projection</t>
+  </si>
+  <si>
+    <t>C'est dans cette partie que j'explicite bien les différents concepts, et mode de calcul de chaque cas</t>
+  </si>
+  <si>
+    <t>En particulier, il faudrait que je construise des tableaux à intégrer au rapport en latex</t>
+  </si>
+  <si>
+    <t>Evaluation finale sur le set de test</t>
   </si>
 </sst>
 </file>
@@ -1135,11 +1154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391124360"/>
-        <c:axId val="391125928"/>
+        <c:axId val="135395392"/>
+        <c:axId val="135396176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391124360"/>
+        <c:axId val="135395392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1215,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391125928"/>
+        <c:crossAx val="135396176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391125928"/>
+        <c:axId val="135396176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1277,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391124360"/>
+        <c:crossAx val="135395392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1523,11 +1542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391129456"/>
-        <c:axId val="391130240"/>
+        <c:axId val="135391864"/>
+        <c:axId val="135389120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391129456"/>
+        <c:axId val="135391864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,12 +1603,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391130240"/>
+        <c:crossAx val="135389120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391130240"/>
+        <c:axId val="135389120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1665,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391129456"/>
+        <c:crossAx val="135391864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1896,7 +1915,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391124752"/>
-        <c:axId val="391128280"/>
+        <c:axId val="135389904"/>
+        <c:axId val="135392256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391124752"/>
+        <c:axId val="135389904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,12 +1991,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391128280"/>
+        <c:crossAx val="135392256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391128280"/>
+        <c:axId val="135392256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2053,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391124752"/>
+        <c:crossAx val="135389904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4116,11 +4135,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6947,6 +6966,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L88"/>
   <sheetViews>
@@ -7022,7 +7086,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7136,9 +7200,9 @@
         <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!J$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
         <v>66</v>
       </c>
-      <c r="K9" s="30" t="e">
+      <c r="K9" s="30">
         <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!K$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="L9" s="23"/>
     </row>
@@ -7175,9 +7239,9 @@
         <f t="shared" ca="1" si="6"/>
         <v>-1</v>
       </c>
-      <c r="K10" s="30" t="e">
+      <c r="K10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="23"/>
     </row>
@@ -7253,9 +7317,9 @@
         <f t="shared" ca="1" si="7"/>
         <v>10.285714285714285</v>
       </c>
-      <c r="K12" s="31" t="e">
+      <c r="K12" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="L12" s="23"/>
     </row>
@@ -8012,7 +8076,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Burndown" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backlog!$B$3:$H$156</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
   <si>
     <t>Description</t>
   </si>
@@ -585,6 +585,22 @@
   </si>
   <si>
     <t>Evaluation finale sur le set de test</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>ANNULE</t>
+  </si>
+  <si>
+    <t>Nettoyer et mettre les sorties de dataframe au forma latex joli
+gt_based_model : Ok
+Analyse donnees du PIM : Ok
+Analyse quantitative : ANNULE
+ground_truth_consitution OK
+model_tuning : OK
+open_model : OK
+Performance_measurement : OK</t>
   </si>
 </sst>
 </file>
@@ -1154,11 +1170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135395392"/>
-        <c:axId val="135396176"/>
+        <c:axId val="331338232"/>
+        <c:axId val="331338624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135395392"/>
+        <c:axId val="331338232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,12 +1231,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135396176"/>
+        <c:crossAx val="331338624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135396176"/>
+        <c:axId val="331338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1293,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135395392"/>
+        <c:crossAx val="331338232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1542,11 +1558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135391864"/>
-        <c:axId val="135389120"/>
+        <c:axId val="331333528"/>
+        <c:axId val="331337056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135391864"/>
+        <c:axId val="331333528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,12 +1619,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135389120"/>
+        <c:crossAx val="331337056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135389120"/>
+        <c:axId val="331337056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1681,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135391864"/>
+        <c:crossAx val="331333528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1930,11 +1946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135389904"/>
-        <c:axId val="135392256"/>
+        <c:axId val="331337840"/>
+        <c:axId val="331340584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135389904"/>
+        <c:axId val="331337840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,12 +2007,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135392256"/>
+        <c:crossAx val="331340584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135392256"/>
+        <c:axId val="331340584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2069,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135389904"/>
+        <c:crossAx val="331337840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4133,13 +4149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H159"/>
+  <dimension ref="B1:H156"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,14 +4176,14 @@
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="37">
-        <f>SUM(E5:E408)</f>
+        <f>SUM(E5:E405)</f>
         <v>503</v>
       </c>
       <c r="G1" s="3">
         <v>3</v>
       </c>
       <c r="H1" s="3">
-        <f>SUMPRODUCT(--($F$5:$F$159=$G$1),--($E$5:$E$159))</f>
+        <f>SUMPRODUCT(--($F$5:$F$156=$G$1),--($E$5:$E$156))</f>
         <v>73</v>
       </c>
     </row>
@@ -4279,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="str">
-        <f t="shared" ref="G7:G80" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
+        <f t="shared" ref="G7:G81" si="0">IF(ISBLANK(H7),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
       <c r="H7" s="16">
@@ -4669,7 +4685,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
@@ -4693,7 +4709,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
@@ -4717,7 +4733,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -4734,14 +4750,14 @@
         <v>3</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f t="shared" ref="G26:G37" si="2">IF(ISBLANK(H26),"A faire","Terminé")</f>
+        <f t="shared" ref="G26:G38" si="2">IF(ISBLANK(H26),"A faire","Terminé")</f>
         <v>Terminé</v>
       </c>
       <c r="H26" s="12">
         <v>43966</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
@@ -4765,7 +4781,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
@@ -4789,7 +4805,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
@@ -4813,7 +4829,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
@@ -4837,27 +4853,23 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="11">
-        <v>3</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="11" t="str">
-        <f>IF(ISBLANK(H31),"A faire","Terminé")</f>
+        <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
@@ -4867,7 +4879,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -4883,13 +4895,13 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -4903,15 +4915,15 @@
       </c>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
@@ -4921,152 +4933,154 @@
       </c>
       <c r="G34" s="11" t="str">
         <f>IF(ISBLANK(H34),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H34" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E35" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="11">
         <v>3</v>
       </c>
       <c r="G35" s="11" t="str">
         <f>IF(ISBLANK(H35),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H35" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E36" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F36" s="11">
         <v>3</v>
       </c>
       <c r="G36" s="11" t="str">
+        <f>IF(ISBLANK(H36),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H36" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="11">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>43968</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+    <row r="38" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="str">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="15">
-        <v>3</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="str">
-        <f t="shared" ref="G38" si="4">IF(ISBLANK(H38),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E39" s="15">
         <v>3</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G39" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="11">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11" t="str">
-        <f>IF(ISBLANK(H40),"A faire","Terminé")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="H40" s="12">
-        <v>43957</v>
-      </c>
+    <row r="40" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="15">
+        <v>3</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E41" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F41" s="11">
         <v>1</v>
@@ -5076,70 +5090,73 @@
         <v>Terminé</v>
       </c>
       <c r="H41" s="12">
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>22</v>
+      <c r="C42" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E42" s="11">
         <v>3</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
       <c r="G42" s="11" t="str">
+        <f>IF(ISBLANK(H42),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H42" s="12">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>A faire</v>
       </c>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>8</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="str">
-        <f t="shared" ref="G43:G52" si="5">IF(ISBLANK(H43),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="11">
-        <v>13</v>
-      </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
+      <c r="G44" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>58</v>
       </c>
@@ -5147,64 +5164,70 @@
         <v>59</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E45" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G45:G49" si="4">IF(ISBLANK(H45),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H45" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H46" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H47" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>63</v>
@@ -5214,32 +5237,36 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H48" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>25</v>
+      <c r="C49" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E49" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
-      </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H49" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>10</v>
       </c>
@@ -5247,19 +5274,18 @@
         <v>25</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
+      <c r="G50" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>10</v>
       </c>
@@ -5267,59 +5293,56 @@
         <v>25</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="11">
         <v>3</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
+      <c r="G51" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52" s="11">
         <v>3</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>A faire</v>
+      <c r="G52" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
@@ -5327,99 +5350,94 @@
         <v>23</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E55" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G55" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G56" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="11">
         <v>5</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G57" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="11">
         <v>5</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G58" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>10</v>
       </c>
@@ -5427,19 +5445,18 @@
         <v>25</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" s="11"/>
-      <c r="G59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G59" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
@@ -5447,19 +5464,18 @@
         <v>25</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F60" s="11"/>
-      <c r="G60" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G60" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>10</v>
       </c>
@@ -5467,19 +5483,18 @@
         <v>25</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="11">
         <v>5</v>
       </c>
       <c r="F61" s="11"/>
-      <c r="G61" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G61" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>10</v>
       </c>
@@ -5487,19 +5502,18 @@
         <v>25</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E62" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G62" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>10</v>
       </c>
@@ -5507,39 +5521,37 @@
         <v>25</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>8</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="11">
-        <v>20</v>
-      </c>
       <c r="F64" s="11"/>
-      <c r="G64" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G64" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>8</v>
       </c>
@@ -5547,10 +5559,10 @@
         <v>22</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11" t="str">
@@ -5559,7 +5571,7 @@
       </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>8</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="11">
         <v>8</v>
@@ -5579,7 +5591,7 @@
       </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>8</v>
       </c>
@@ -5587,10 +5599,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E67" s="11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11" t="str">
@@ -5599,18 +5611,18 @@
       </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>25</v>
+    <row r="68" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E68" s="11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11" t="str">
@@ -5619,78 +5631,75 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E69" s="11">
         <v>3</v>
       </c>
       <c r="F69" s="11"/>
-      <c r="G69" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
+      <c r="G69" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="11">
+        <v>3</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>5</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>8</v>
-      </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="11">
-        <v>5</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
@@ -5699,58 +5708,59 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="11">
+        <v>5</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>20</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="11">
-        <v>5</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H74" s="11"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H74" s="12">
+        <v>43988</v>
+      </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E75" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
@@ -5759,58 +5769,62 @@
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E76" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H76" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H77" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E78" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="str">
@@ -5821,16 +5835,16 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="str">
@@ -5839,87 +5853,89 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E80" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>A faire</v>
-      </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Terminé</v>
+      </c>
+      <c r="H80" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E81" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11" t="str">
-        <f t="shared" ref="G81:G144" si="6">IF(ISBLANK(H81),"A faire","Terminé")</f>
-        <v>A faire</v>
-      </c>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H81" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F82" s="11"/>
-      <c r="G82" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
+      <c r="G82" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="11">
         <v>8</v>
       </c>
       <c r="F83" s="11"/>
-      <c r="G83" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
+      <c r="G83" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>10</v>
       </c>
@@ -5927,179 +5943,187 @@
         <v>113</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G84:G141" si="5">IF(ISBLANK(H84),"A faire","Terminé")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="H84" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E85" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H85" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E86" s="11">
         <v>2</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H86" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E87" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E88" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H88" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="11">
+        <v>8</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D90" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>13</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="11">
-        <v>5</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H90" s="11"/>
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H90" s="12">
+        <v>43988</v>
+      </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E91" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F92" s="11"/>
-      <c r="G92" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
+      <c r="G92" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>10</v>
       </c>
@@ -6107,43 +6131,42 @@
         <v>139</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E93" s="11">
-        <v>5</v>
-      </c>
-      <c r="F93" s="11">
-        <v>3</v>
-      </c>
-      <c r="G93" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Terminé</v>
-      </c>
-      <c r="H93" s="12">
-        <v>43967</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E94" s="11">
-        <v>2</v>
-      </c>
-      <c r="F94" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="F94" s="11">
+        <v>3</v>
+      </c>
       <c r="G94" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H94" s="12">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>10</v>
       </c>
@@ -6151,116 +6174,131 @@
         <v>24</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="11">
         <v>2</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H95" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="11">
+        <v>2</v>
+      </c>
       <c r="F96" s="11"/>
-      <c r="G96" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
+      <c r="G96" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="10"/>
+    <row r="97" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="10"/>
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H97" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="10"/>
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H98" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>A faire</v>
-      </c>
-      <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>134</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H99" s="12">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
-        <f>IF(ISBLANK(H93),"A faire","Terminé")</f>
-        <v>Terminé</v>
+        <f t="shared" si="5"/>
+        <v>A faire</v>
       </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>128</v>
-      </c>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="str">
-        <f>IF(ISBLANK(H94),"A faire","Terminé")</f>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>129</v>
-      </c>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="str">
-        <f>IF(ISBLANK(H95),"A faire","Terminé")</f>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H102" s="11"/>
@@ -6272,7 +6310,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H103" s="11"/>
@@ -6284,7 +6322,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H104" s="11"/>
@@ -6296,7 +6334,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H105" s="11"/>
@@ -6308,7 +6346,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H106" s="11"/>
@@ -6320,7 +6358,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H107" s="11"/>
@@ -6332,7 +6370,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H108" s="11"/>
@@ -6344,7 +6382,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H109" s="11"/>
@@ -6356,7 +6394,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H110" s="11"/>
@@ -6368,7 +6406,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H111" s="11"/>
@@ -6380,7 +6418,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H112" s="11"/>
@@ -6392,7 +6430,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H113" s="11"/>
@@ -6404,7 +6442,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H114" s="11"/>
@@ -6416,7 +6454,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H115" s="11"/>
@@ -6428,7 +6466,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H116" s="11"/>
@@ -6440,7 +6478,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H117" s="11"/>
@@ -6452,7 +6490,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H118" s="11"/>
@@ -6464,7 +6502,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H119" s="11"/>
@@ -6476,7 +6514,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H120" s="11"/>
@@ -6488,7 +6526,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H121" s="11"/>
@@ -6500,7 +6538,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H122" s="11"/>
@@ -6512,7 +6550,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H123" s="11"/>
@@ -6524,7 +6562,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H124" s="11"/>
@@ -6536,7 +6574,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H125" s="11"/>
@@ -6548,7 +6586,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H126" s="11"/>
@@ -6560,7 +6598,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H127" s="11"/>
@@ -6572,7 +6610,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H128" s="11"/>
@@ -6584,7 +6622,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H129" s="11"/>
@@ -6596,7 +6634,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H130" s="11"/>
@@ -6608,7 +6646,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H131" s="11"/>
@@ -6620,7 +6658,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H132" s="11"/>
@@ -6632,7 +6670,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H133" s="11"/>
@@ -6644,7 +6682,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H134" s="11"/>
@@ -6656,7 +6694,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H135" s="11"/>
@@ -6668,7 +6706,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H136" s="11"/>
@@ -6680,7 +6718,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H137" s="11"/>
@@ -6692,7 +6730,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H138" s="11"/>
@@ -6704,7 +6742,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H139" s="11"/>
@@ -6716,7 +6754,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H140" s="11"/>
@@ -6728,7 +6766,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>A faire</v>
       </c>
       <c r="H141" s="11"/>
@@ -6740,7 +6778,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G142:G156" si="6">IF(ISBLANK(H142),"A faire","Terminé")</f>
         <v>A faire</v>
       </c>
       <c r="H142" s="11"/>
@@ -6776,7 +6814,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="str">
-        <f t="shared" ref="G145:G159" si="7">IF(ISBLANK(H145),"A faire","Terminé")</f>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H145" s="11"/>
@@ -6788,7 +6826,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H146" s="11"/>
@@ -6800,7 +6838,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H147" s="11"/>
@@ -6812,7 +6850,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H148" s="11"/>
@@ -6824,7 +6862,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H149" s="11"/>
@@ -6836,7 +6874,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H150" s="11"/>
@@ -6848,7 +6886,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H151" s="11"/>
@@ -6860,7 +6898,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H152" s="11"/>
@@ -6872,7 +6910,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H153" s="11"/>
@@ -6884,7 +6922,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H154" s="11"/>
@@ -6896,7 +6934,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H155" s="11"/>
@@ -6908,49 +6946,13 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>A faire</v>
       </c>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>A faire</v>
-      </c>
-      <c r="H157" s="11"/>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>A faire</v>
-      </c>
-      <c r="H158" s="11"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>A faire</v>
-      </c>
-      <c r="H159" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:H159">
+  <autoFilter ref="B3:H156">
     <filterColumn colId="5">
       <filters>
         <filter val="A faire"/>
@@ -6969,8 +6971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7086,7 +7088,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43978</v>
+        <v>43989</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -7177,31 +7179,31 @@
         <v>0</v>
       </c>
       <c r="E9" s="30">
-        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!E$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=E$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!E$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>18</v>
       </c>
       <c r="F9" s="30">
-        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!F$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=F$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!F$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>39</v>
       </c>
       <c r="G9" s="30">
-        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!G$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=G$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!G$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>47</v>
       </c>
       <c r="H9" s="30">
-        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!H$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=H$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!H$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>63</v>
       </c>
       <c r="I9" s="30">
-        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!I$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=I$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!I$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>66</v>
       </c>
       <c r="J9" s="30">
-        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!J$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=J$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!J$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>66</v>
       </c>
       <c r="K9" s="30">
-        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$159),--(backlog!$E$4:$E$159),--(backlog!$H$4:$H$159&lt;=Burndown!K$8),--(backlog!$G$4:$G$159="Terminé")),NA())</f>
+        <f ca="1">IF($H$5&gt;=K$8,SUMPRODUCT(--($H$6=backlog!$F$4:$F$156),--(backlog!$E$4:$E$156),--(backlog!$H$4:$H$156&lt;=Burndown!K$8),--(backlog!$G$4:$G$156="Terminé")),NA())</f>
         <v>66</v>
       </c>
       <c r="L9" s="23"/>
@@ -8076,7 +8078,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43978</v>
+        <v>43989</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1170,11 +1170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331338232"/>
-        <c:axId val="331338624"/>
+        <c:axId val="385531424"/>
+        <c:axId val="385530248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331338232"/>
+        <c:axId val="385531424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1231,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331338624"/>
+        <c:crossAx val="385530248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331338624"/>
+        <c:axId val="385530248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1293,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331338232"/>
+        <c:crossAx val="385531424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1558,11 +1558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331333528"/>
-        <c:axId val="331337056"/>
+        <c:axId val="385530640"/>
+        <c:axId val="385528680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331333528"/>
+        <c:axId val="385530640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,12 +1619,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331337056"/>
+        <c:crossAx val="385528680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331337056"/>
+        <c:axId val="385528680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1681,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331333528"/>
+        <c:crossAx val="385530640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,11 +1946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331337840"/>
-        <c:axId val="331340584"/>
+        <c:axId val="385525152"/>
+        <c:axId val="385525544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331337840"/>
+        <c:axId val="385525152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2007,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331340584"/>
+        <c:crossAx val="385525544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331340584"/>
+        <c:axId val="385525544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2069,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331337840"/>
+        <c:crossAx val="385525152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4152,10 +4152,10 @@
   <dimension ref="B1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,9 +5027,11 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>A faire</v>
-      </c>
-      <c r="H38" s="12"/>
+        <v>Terminé</v>
+      </c>
+      <c r="H38" s="12">
+        <v>43989</v>
+      </c>
     </row>
     <row r="39" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
@@ -7088,7 +7090,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -8078,7 +8080,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="166">
   <si>
     <t>Description</t>
   </si>
@@ -601,6 +601,9 @@
 model_tuning : OK
 open_model : OK
 Performance_measurement : OK</t>
+  </si>
+  <si>
+    <t>Attention ! &lt;rien&gt; &lt;rien&gt; donne une similarité à 0 % dans l'évaluation de la performance.</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385531424"/>
-        <c:axId val="385530248"/>
+        <c:axId val="388160312"/>
+        <c:axId val="388155216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385531424"/>
+        <c:axId val="388160312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1234,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385530248"/>
+        <c:crossAx val="388155216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385530248"/>
+        <c:axId val="388155216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1296,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385531424"/>
+        <c:crossAx val="388160312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1558,11 +1561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385530640"/>
-        <c:axId val="385528680"/>
+        <c:axId val="388156784"/>
+        <c:axId val="388157176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385530640"/>
+        <c:axId val="388156784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,12 +1622,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385528680"/>
+        <c:crossAx val="388157176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385528680"/>
+        <c:axId val="388157176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1684,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385530640"/>
+        <c:crossAx val="388156784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,11 +1949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385525152"/>
-        <c:axId val="385525544"/>
+        <c:axId val="388157960"/>
+        <c:axId val="387078144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385525152"/>
+        <c:axId val="388157960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2010,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385525544"/>
+        <c:crossAx val="387078144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385525544"/>
+        <c:axId val="387078144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2072,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385525152"/>
+        <c:crossAx val="388157960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4148,14 +4151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4232,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>43960</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>10</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
@@ -4915,7 +4917,7 @@
       </c>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
@@ -5052,7 +5054,7 @@
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>58</v>
       </c>
@@ -5071,7 +5073,7 @@
       </c>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
@@ -5139,7 +5141,7 @@
       </c>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5160,7 @@
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>58</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>58</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>10</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>10</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5289,7 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5308,7 @@
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>10</v>
       </c>
@@ -5325,7 +5327,7 @@
       </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>9</v>
       </c>
@@ -5344,7 +5346,7 @@
       </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
@@ -5363,7 +5365,7 @@
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
@@ -5382,7 +5384,7 @@
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
@@ -5401,7 +5403,7 @@
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>9</v>
       </c>
@@ -5420,7 +5422,7 @@
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
@@ -5439,7 +5441,7 @@
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>10</v>
       </c>
@@ -5458,7 +5460,7 @@
       </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
@@ -5477,7 +5479,7 @@
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>10</v>
       </c>
@@ -5496,7 +5498,7 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>10</v>
       </c>
@@ -5515,7 +5517,7 @@
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>10</v>
       </c>
@@ -5534,7 +5536,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
@@ -5633,7 +5635,7 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>10</v>
       </c>
@@ -5652,7 +5654,7 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
         <v>10</v>
       </c>
@@ -5671,7 +5673,7 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
         <v>10</v>
       </c>
@@ -5710,7 +5712,7 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
@@ -5729,7 +5731,7 @@
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>10</v>
       </c>
@@ -5771,7 +5773,7 @@
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>9</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5857,7 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
         <v>9</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>10</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>10</v>
       </c>
@@ -5918,7 +5920,7 @@
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5939,7 @@
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>10</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>9</v>
       </c>
@@ -6023,7 +6025,7 @@
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>126</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>58</v>
       </c>
@@ -6064,7 +6066,7 @@
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>126</v>
       </c>
@@ -6106,7 +6108,7 @@
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
@@ -6125,7 +6127,7 @@
       </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +6146,7 @@
       </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>10</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>10</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6211,7 @@
       </c>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>130</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>130</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>130</v>
       </c>
@@ -6272,7 +6274,9 @@
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
@@ -6954,13 +6958,7 @@
       <c r="H156" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H156">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="A faire"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:H156"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -7090,7 +7088,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43990</v>
+        <v>43993</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -8080,7 +8078,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43990</v>
+        <v>43993</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>Description</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>Attention ! &lt;rien&gt; &lt;rien&gt; donne une similarité à 0 % dans l'évaluation de la performance.</t>
+  </si>
+  <si>
+    <t>Redéfinir précisément ce que veut dire "en qualité" et "hors qualité"</t>
   </si>
 </sst>
 </file>
@@ -1173,11 +1176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388160312"/>
-        <c:axId val="388155216"/>
+        <c:axId val="393152432"/>
+        <c:axId val="393156744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388160312"/>
+        <c:axId val="393152432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,12 +1237,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388155216"/>
+        <c:crossAx val="393156744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388155216"/>
+        <c:axId val="393156744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1299,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388160312"/>
+        <c:crossAx val="393152432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1561,11 +1564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388156784"/>
-        <c:axId val="388157176"/>
+        <c:axId val="393150472"/>
+        <c:axId val="393156352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388156784"/>
+        <c:axId val="393150472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,12 +1625,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388157176"/>
+        <c:crossAx val="393156352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388157176"/>
+        <c:axId val="393156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388156784"/>
+        <c:crossAx val="393150472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,11 +1952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388157960"/>
-        <c:axId val="387078144"/>
+        <c:axId val="393155960"/>
+        <c:axId val="393150864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388157960"/>
+        <c:axId val="393155960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2013,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387078144"/>
+        <c:crossAx val="393150864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387078144"/>
+        <c:axId val="393150864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2075,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388157960"/>
+        <c:crossAx val="393155960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4157,7 +4160,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6288,7 +6291,9 @@
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
+      <c r="D101" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="str">
@@ -7088,7 +7093,7 @@
       </c>
       <c r="H5" s="32">
         <f ca="1">TODAY()</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -8078,7 +8083,7 @@
       </c>
       <c r="H64" s="32">
         <f ca="1">TODAY()</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
